--- a/saudiexchange_rs_analysis.xlsx
+++ b/saudiexchange_rs_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:G285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>RS_1Year</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RS_9Months</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>RS_6Months</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>RS_3Months</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
@@ -471,19 +476,20 @@
           <t>2P</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>29</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>35</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>56</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>40</v>
       </c>
     </row>
@@ -493,19 +499,20 @@
           <t>A.OTHAIM MARKET</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27</v>
       </c>
       <c r="E3" t="n">
         <v>27</v>
       </c>
       <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
         <v>22</v>
       </c>
     </row>
@@ -515,14 +522,12 @@
           <t>ABO MOATI</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>99</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>97</v>
-      </c>
-      <c r="D4" t="n">
-        <v>99</v>
       </c>
       <c r="E4" t="n">
         <v>99</v>
@@ -530,6 +535,9 @@
       <c r="F4" t="n">
         <v>99</v>
       </c>
+      <c r="G4" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -537,19 +545,20 @@
           <t>ACC</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>50</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53</v>
       </c>
       <c r="D5" t="n">
         <v>53</v>
       </c>
       <c r="E5" t="n">
+        <v>53</v>
+      </c>
+      <c r="F5" t="n">
         <v>68</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>59</v>
       </c>
     </row>
@@ -559,19 +568,20 @@
           <t>ACIG</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>25</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
       </c>
       <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>29</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>20</v>
       </c>
     </row>
@@ -581,19 +591,20 @@
           <t>ACWA POWER</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>15</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>43</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>22</v>
       </c>
     </row>
@@ -603,19 +614,20 @@
           <t>ADES</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>78</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>92</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>99</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>96</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>93</v>
       </c>
     </row>
@@ -625,19 +637,20 @@
           <t>ADVANCED</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>75</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>93</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>87</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>36</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>66</v>
       </c>
     </row>
@@ -647,19 +660,20 @@
           <t>AICC</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" t="n">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>37</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>32</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>34</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>37</v>
       </c>
     </row>
@@ -669,21 +683,22 @@
           <t>AL AZIZIAH REIT</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>90</v>
-      </c>
+      <c r="B11" s="1" t="inlineStr"/>
       <c r="C11" t="n">
         <v>90</v>
       </c>
       <c r="D11" t="n">
+        <v>90</v>
+      </c>
+      <c r="E11" t="n">
         <v>53</v>
-      </c>
-      <c r="E11" t="n">
-        <v>78</v>
       </c>
       <c r="F11" t="n">
         <v>78</v>
       </c>
+      <c r="G11" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -691,19 +706,20 @@
           <t>AL MAATHER REIT</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" t="n">
         <v>80</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>86</v>
-      </c>
-      <c r="D12" t="n">
-        <v>74</v>
       </c>
       <c r="E12" t="n">
         <v>74</v>
       </c>
       <c r="F12" t="n">
+        <v>74</v>
+      </c>
+      <c r="G12" t="n">
         <v>78</v>
       </c>
     </row>
@@ -713,19 +729,20 @@
           <t>ALAHLI REIT 1</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="inlineStr"/>
+      <c r="C13" t="n">
         <v>69</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>64</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>54</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>59</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>62</v>
       </c>
     </row>
@@ -735,19 +752,20 @@
           <t>ALAHLIA</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="inlineStr"/>
+      <c r="C14" t="n">
         <v>87</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>83</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>79</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>71</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>79</v>
       </c>
     </row>
@@ -757,19 +775,20 @@
           <t>ALAKARIA</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="inlineStr"/>
+      <c r="C15" t="n">
         <v>7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -779,19 +798,20 @@
           <t>ALAMAR</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>9</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>21</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>13</v>
       </c>
     </row>
@@ -801,19 +821,20 @@
           <t>ALANDALUS</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="inlineStr"/>
+      <c r="C17" t="n">
         <v>45</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>19</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>22</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>20</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>26</v>
       </c>
     </row>
@@ -823,19 +844,20 @@
           <t>ALARABIA</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="inlineStr"/>
+      <c r="C18" t="n">
         <v>51</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>48</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>94</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>99</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>79</v>
       </c>
     </row>
@@ -845,19 +867,20 @@
           <t>ALASEEL</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="1" t="inlineStr"/>
+      <c r="C19" t="n">
         <v>47</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>56</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>30</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>48</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>46</v>
       </c>
     </row>
@@ -867,19 +890,20 @@
           <t>ALAWWAL</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>90</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>83</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>79</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>71</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>79</v>
       </c>
     </row>
@@ -889,19 +913,20 @@
           <t>ALBABTAIN</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>99</v>
-      </c>
+      <c r="B21" s="1" t="inlineStr"/>
       <c r="C21" t="n">
         <v>99</v>
       </c>
       <c r="D21" t="n">
+        <v>99</v>
+      </c>
+      <c r="E21" t="n">
         <v>98</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>97</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>98</v>
       </c>
     </row>
@@ -911,19 +936,20 @@
           <t>ALBILAD</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="1" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>65</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>45</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>72</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>79</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>68</v>
       </c>
     </row>
@@ -933,19 +959,20 @@
           <t>ALDAWAA</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="1" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>28</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>42</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>6</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>17</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>22</v>
       </c>
     </row>
@@ -955,19 +982,20 @@
           <t>ALDREES</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="1" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>94</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>72</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>89</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>90</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>87</v>
       </c>
     </row>
@@ -977,19 +1005,20 @@
           <t>ALETIHAD</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="1" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>4</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>6</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>11</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7</v>
       </c>
     </row>
@@ -999,19 +1028,20 @@
           <t>ALHAMMADI</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="1" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>29</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>19</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>16</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>23</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1021,19 +1051,20 @@
           <t>ALINMA</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="1" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>58</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>44</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>61</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>63</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>58</v>
       </c>
     </row>
@@ -1043,19 +1074,20 @@
           <t>ALINMA HOSPITALITY REIT</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="1" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>83</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>78</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>72</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>75</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>77</v>
       </c>
     </row>
@@ -1065,19 +1097,20 @@
           <t>ALINMA RETAIL REIT</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>75</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>76</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>66</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>63</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>69</v>
       </c>
     </row>
@@ -1087,19 +1120,20 @@
           <t>ALINMA TOKIO M</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="1" t="inlineStr"/>
+      <c r="C30" t="n">
         <v>87</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>83</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>79</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>71</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>79</v>
       </c>
     </row>
@@ -1109,19 +1143,20 @@
           <t>ALISTITHMAR REIT</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="1" t="inlineStr"/>
+      <c r="C31" t="n">
         <v>55</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>95</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>58</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>28</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1131,19 +1166,20 @@
           <t>ALJAZIRA REIT</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="1" t="inlineStr"/>
+      <c r="C32" t="n">
         <v>48</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>54</v>
-      </c>
-      <c r="D32" t="n">
-        <v>45</v>
       </c>
       <c r="E32" t="n">
         <v>45</v>
       </c>
       <c r="F32" t="n">
+        <v>45</v>
+      </c>
+      <c r="G32" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1153,19 +1189,20 @@
           <t>ALJOUF</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="1" t="inlineStr"/>
+      <c r="C33" t="n">
         <v>36</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>47</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>67</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>62</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>55</v>
       </c>
     </row>
@@ -1175,19 +1212,20 @@
           <t>ALKATHIRI</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="1" t="inlineStr"/>
+      <c r="C34" t="n">
         <v>43</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>53</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>68</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>50</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1197,19 +1235,20 @@
           <t>ALKHABEER REIT</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" t="n">
         <v>82</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>77</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>70</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>59</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>70</v>
       </c>
     </row>
@@ -1219,19 +1258,20 @@
           <t>ALKHALEEJ TRNG</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="1" t="inlineStr"/>
+      <c r="C36" t="n">
         <v>23</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>24</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>23</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>44</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>32</v>
       </c>
     </row>
@@ -1241,19 +1281,20 @@
           <t>ALKHODARI</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="1" t="inlineStr"/>
+      <c r="C37" t="n">
         <v>87</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>83</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>79</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>71</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>79</v>
       </c>
     </row>
@@ -1263,19 +1304,20 @@
           <t>ALMAJDIAH</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="1" t="inlineStr"/>
+      <c r="C38" t="n">
         <v>46</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>33</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>16</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>5</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>21</v>
       </c>
     </row>
@@ -1285,19 +1327,20 @@
           <t>ALMAJED OUD</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="1" t="inlineStr"/>
+      <c r="C39" t="n">
         <v>66</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>91</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>63</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>98</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>84</v>
       </c>
     </row>
@@ -1307,19 +1350,20 @@
           <t>ALMARAI</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="1" t="inlineStr"/>
+      <c r="C40" t="n">
         <v>40</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>37</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>45</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>43</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>42</v>
       </c>
     </row>
@@ -1329,19 +1373,20 @@
           <t>ALMASAR ALSHAMIL</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="1" t="inlineStr"/>
+      <c r="C41" t="n">
         <v>84</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>80</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>75</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>67</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>75</v>
       </c>
     </row>
@@ -1351,19 +1396,20 @@
           <t>ALMAWARID</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="1" t="inlineStr"/>
+      <c r="C42" t="n">
         <v>98</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>88</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>68</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>93</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1373,19 +1419,20 @@
           <t>ALMOOSA</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="1" t="inlineStr"/>
+      <c r="C43" t="n">
         <v>96</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>94</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>93</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>74</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>87</v>
       </c>
     </row>
@@ -1395,19 +1442,20 @@
           <t>ALMUNAJEM</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="1" t="inlineStr"/>
+      <c r="C44" t="n">
         <v>8</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>10</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>19</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>78</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>39</v>
       </c>
     </row>
@@ -1417,19 +1465,20 @@
           <t>ALOMRAN</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="1" t="inlineStr"/>
+      <c r="C45" t="n">
         <v>30</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>38</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>55</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>66</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1439,19 +1488,20 @@
           <t>ALRAJHI</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="1" t="inlineStr"/>
+      <c r="C46" t="n">
         <v>94</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>75</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>86</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>83</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>85</v>
       </c>
     </row>
@@ -1461,19 +1511,20 @@
           <t>ALRAJHI TAKAFUL</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>5</v>
-      </c>
+      <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
         <v>5</v>
       </c>
       <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
         <v>10</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1483,19 +1534,20 @@
           <t>ALSAGR INSURANCE</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="1" t="inlineStr"/>
+      <c r="C48" t="n">
         <v>14</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>31</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>35</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>14</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1505,19 +1557,20 @@
           <t>ALSAIF GALLERY</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="1" t="inlineStr"/>
+      <c r="C49" t="n">
         <v>56</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>48</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>47</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>39</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>46</v>
       </c>
     </row>
@@ -1527,19 +1580,20 @@
           <t>ALUJAIN</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="1" t="inlineStr"/>
+      <c r="C50" t="n">
         <v>41</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>66</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>21</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>10</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1549,19 +1603,20 @@
           <t>ALYAMAMAH STEEL</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="1" t="inlineStr"/>
+      <c r="C51" t="n">
         <v>82</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>89</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>91</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>82</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>86</v>
       </c>
     </row>
@@ -1571,19 +1626,20 @@
           <t>AMAK</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="1" t="inlineStr"/>
+      <c r="C52" t="n">
         <v>96</v>
-      </c>
-      <c r="C52" t="n">
-        <v>99</v>
       </c>
       <c r="D52" t="n">
         <v>99</v>
       </c>
       <c r="E52" t="n">
+        <v>99</v>
+      </c>
+      <c r="F52" t="n">
         <v>96</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>98</v>
       </c>
     </row>
@@ -1593,14 +1649,12 @@
           <t>AMANA INSURANCE</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="1" t="inlineStr"/>
+      <c r="C53" t="n">
         <v>12</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>10</v>
-      </c>
-      <c r="D53" t="n">
-        <v>12</v>
       </c>
       <c r="E53" t="n">
         <v>12</v>
@@ -1608,6 +1662,9 @@
       <c r="F53" t="n">
         <v>12</v>
       </c>
+      <c r="G53" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1615,19 +1672,20 @@
           <t>AMERICANA</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="1" t="inlineStr"/>
+      <c r="C54" t="n">
         <v>55</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>41</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>27</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>50</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>45</v>
       </c>
     </row>
@@ -1637,19 +1695,20 @@
           <t>AMIANTIT</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="1" t="inlineStr"/>
+      <c r="C55" t="n">
         <v>10</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>23</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>28</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>39</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1659,19 +1718,20 @@
           <t>AMLAK</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="1" t="inlineStr"/>
+      <c r="C56" t="n">
         <v>79</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>65</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>94</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>28</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>59</v>
       </c>
     </row>
@@ -1681,19 +1741,20 @@
           <t>ANAAM HOLDING</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="1" t="inlineStr"/>
+      <c r="C57" t="n">
         <v>2</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>17</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>23</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>4</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1703,19 +1764,20 @@
           <t>ANB</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="1" t="inlineStr"/>
+      <c r="C58" t="n">
         <v>95</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>90</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>92</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>77</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>87</v>
       </c>
     </row>
@@ -1725,19 +1787,20 @@
           <t>APC</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="1" t="inlineStr"/>
+      <c r="C59" t="n">
         <v>14</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>13</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>17</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>47</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1747,19 +1810,20 @@
           <t>ARAB SEA</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="1" t="inlineStr"/>
+      <c r="C60" t="n">
         <v>18</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>29</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>30</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>22</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1769,19 +1833,20 @@
           <t>ARABIAN DRILLING</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="1" t="inlineStr"/>
+      <c r="C61" t="n">
         <v>52</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>90</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>96</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>99</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1791,19 +1856,20 @@
           <t>ARABIAN MILLS</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="1" t="inlineStr"/>
+      <c r="C62" t="n">
         <v>41</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>46</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>60</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>55</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>52</v>
       </c>
     </row>
@@ -1813,19 +1879,20 @@
           <t>ARABIAN SHIELD</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="1" t="inlineStr"/>
+      <c r="C63" t="n">
         <v>16</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>15</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>13</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>35</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>23</v>
       </c>
     </row>
@@ -1835,19 +1902,20 @@
           <t>ARDCO</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="1" t="inlineStr"/>
+      <c r="C64" t="n">
         <v>73</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>36</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>18</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>9</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1857,19 +1925,20 @@
           <t>ARTEX</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="1" t="inlineStr"/>
+      <c r="C65" t="n">
         <v>35</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>58</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>42</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>44</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>45</v>
       </c>
     </row>
@@ -1879,19 +1948,20 @@
           <t>ASLAK</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="1" t="inlineStr"/>
+      <c r="C66" t="n">
         <v>40</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>46</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>62</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>45</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>48</v>
       </c>
     </row>
@@ -1901,19 +1971,20 @@
           <t>ASTRA INDUSTRIAL</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="1" t="inlineStr"/>
+      <c r="C67" t="n">
         <v>43</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>33</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>39</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>66</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>50</v>
       </c>
     </row>
@@ -1923,19 +1994,20 @@
           <t>ATAA</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="1" t="inlineStr"/>
+      <c r="C68" t="n">
         <v>52</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>71</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>64</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>48</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>57</v>
       </c>
     </row>
@@ -1945,19 +2017,20 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="1" t="inlineStr"/>
+      <c r="C69" t="n">
         <v>87</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>83</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>79</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>71</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>79</v>
       </c>
     </row>
@@ -1967,19 +2040,20 @@
           <t>AVALON PHARMA</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="1" t="inlineStr"/>
+      <c r="C70" t="n">
         <v>83</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>63</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>69</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>58</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>67</v>
       </c>
     </row>
@@ -1989,19 +2063,20 @@
           <t>AWPT</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="1" t="inlineStr"/>
+      <c r="C71" t="n">
         <v>75</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>58</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>69</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>86</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2011,19 +2086,20 @@
           <t>AYYAN</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="1" t="inlineStr"/>
+      <c r="C72" t="n">
         <v>74</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>39</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>74</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>95</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>76</v>
       </c>
     </row>
@@ -2033,19 +2109,20 @@
           <t>AZM</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="1" t="inlineStr"/>
+      <c r="C73" t="n">
         <v>69</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>62</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>47</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>67</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>63</v>
       </c>
     </row>
@@ -2055,19 +2132,20 @@
           <t>Al RAJHI REIT</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="1" t="inlineStr"/>
+      <c r="C74" t="n">
         <v>80</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>78</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>71</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>65</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2077,19 +2155,20 @@
           <t>BAAN</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="1" t="inlineStr"/>
+      <c r="C75" t="n">
         <v>37</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>42</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>58</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>20</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>36</v>
       </c>
     </row>
@@ -2099,19 +2178,20 @@
           <t>BAAZEEM</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="1" t="inlineStr"/>
+      <c r="C76" t="n">
         <v>76</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>78</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>95</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>94</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2121,9 +2201,7 @@
           <t>BAHRI</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>98</v>
-      </c>
+      <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
         <v>98</v>
       </c>
@@ -2131,11 +2209,14 @@
         <v>98</v>
       </c>
       <c r="E77" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" t="n">
         <v>99</v>
       </c>
+      <c r="G77" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2143,19 +2224,20 @@
           <t>BANAN</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="1" t="inlineStr"/>
+      <c r="C78" t="n">
         <v>2</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>7</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>32</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>23</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>18</v>
       </c>
     </row>
@@ -2165,19 +2247,20 @@
           <t>BATIC</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="1" t="inlineStr"/>
+      <c r="C79" t="n">
         <v>13</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>28</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>52</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>40</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2187,19 +2270,20 @@
           <t>BAWAN</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="1" t="inlineStr"/>
+      <c r="C80" t="n">
         <v>91</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>87</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>76</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>26</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>62</v>
       </c>
     </row>
@@ -2209,19 +2293,20 @@
           <t>BCI</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="1" t="inlineStr"/>
+      <c r="C81" t="n">
         <v>59</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>70</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>83</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>63</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>68</v>
       </c>
     </row>
@@ -2231,19 +2316,20 @@
           <t>BINDAWOOD</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="1" t="inlineStr"/>
+      <c r="C82" t="n">
         <v>37</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>34</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>37</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>47</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>41</v>
       </c>
     </row>
@@ -2253,21 +2339,22 @@
           <t>BJAZ</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="1" t="inlineStr"/>
+      <c r="C83" t="n">
         <v>60</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>49</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>50</v>
-      </c>
-      <c r="E83" t="n">
-        <v>54</v>
       </c>
       <c r="F83" t="n">
         <v>54</v>
       </c>
+      <c r="G83" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2275,19 +2362,20 @@
           <t>BONYAN REIT</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="1" t="inlineStr"/>
+      <c r="C84" t="n">
         <v>81</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>76</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>84</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>76</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>79</v>
       </c>
     </row>
@@ -2297,21 +2385,22 @@
           <t>BSF</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="1" t="inlineStr"/>
+      <c r="C85" t="n">
         <v>91</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>75</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>58</v>
-      </c>
-      <c r="E85" t="n">
-        <v>76</v>
       </c>
       <c r="F85" t="n">
         <v>76</v>
       </c>
+      <c r="G85" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2319,19 +2408,20 @@
           <t>BUDGET SAUDI</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>57</v>
-      </c>
+      <c r="B86" s="1" t="inlineStr"/>
       <c r="C86" t="n">
         <v>57</v>
       </c>
       <c r="D86" t="n">
+        <v>57</v>
+      </c>
+      <c r="E86" t="n">
         <v>55</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>52</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2341,19 +2431,20 @@
           <t>BUILD STATION</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="1" t="inlineStr"/>
+      <c r="C87" t="n">
         <v>40</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>27</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>11</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>23</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2363,19 +2454,20 @@
           <t>BUPA ARABIA</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="1" t="inlineStr"/>
+      <c r="C88" t="n">
         <v>34</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>52</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>33</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>59</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>48</v>
       </c>
     </row>
@@ -2385,19 +2477,20 @@
           <t>BURGERIZZR</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="1" t="inlineStr"/>
+      <c r="C89" t="n">
         <v>23</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>30</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>40</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>51</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>39</v>
       </c>
     </row>
@@ -2407,19 +2500,20 @@
           <t>BURUJ</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="1" t="inlineStr"/>
+      <c r="C90" t="n">
         <v>66</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>54</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>64</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>73</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>66</v>
       </c>
     </row>
@@ -2429,17 +2523,18 @@
           <t>Bishah Agriculture</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="1" t="inlineStr"/>
+      <c r="C91" t="n">
         <v>87</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>83</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>79</v>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="n">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2449,19 +2544,20 @@
           <t>CARE</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="1" t="inlineStr"/>
+      <c r="C92" t="n">
         <v>53</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>50</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>36</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>11</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>33</v>
       </c>
     </row>
@@ -2471,19 +2567,20 @@
           <t>CATRION</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="1" t="inlineStr"/>
+      <c r="C93" t="n">
         <v>17</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>14</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>6</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>12</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2493,19 +2590,20 @@
           <t>CENOMI CENTERS</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="1" t="inlineStr"/>
+      <c r="C94" t="n">
         <v>80</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>77</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>86</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>46</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>67</v>
       </c>
     </row>
@@ -2515,19 +2613,20 @@
           <t>CENOMI RETAIL</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>99</v>
-      </c>
+      <c r="B95" s="1" t="inlineStr"/>
       <c r="C95" t="n">
         <v>99</v>
       </c>
       <c r="D95" t="n">
+        <v>99</v>
+      </c>
+      <c r="E95" t="n">
         <v>85</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>18</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>64</v>
       </c>
     </row>
@@ -2537,19 +2636,20 @@
           <t>CHEMANOL</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="1" t="inlineStr"/>
+      <c r="C96" t="n">
         <v>3</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>12</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>14</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>25</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2559,19 +2659,20 @@
           <t>CHEMICAL</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="1" t="inlineStr"/>
+      <c r="C97" t="n">
         <v>29</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>50</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>61</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>91</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>65</v>
       </c>
     </row>
@@ -2581,19 +2682,20 @@
           <t>CHERRY</t>
         </is>
       </c>
-      <c r="B98" t="n">
-        <v>94</v>
-      </c>
+      <c r="B98" s="1" t="inlineStr"/>
       <c r="C98" t="n">
         <v>94</v>
       </c>
       <c r="D98" t="n">
+        <v>94</v>
+      </c>
+      <c r="E98" t="n">
         <v>93</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>89</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>92</v>
       </c>
     </row>
@@ -2603,19 +2705,20 @@
           <t>CHUBB</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="1" t="inlineStr"/>
+      <c r="C99" t="n">
         <v>27</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>22</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>59</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>83</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2625,19 +2728,20 @@
           <t>CITY CEMENT</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="1" t="inlineStr"/>
+      <c r="C100" t="n">
         <v>34</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>13</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>10</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>13</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2647,19 +2751,20 @@
           <t>CMCER</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="1" t="inlineStr"/>
+      <c r="C101" t="n">
         <v>62</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>55</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>36</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>16</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>37</v>
       </c>
     </row>
@@ -2669,19 +2774,20 @@
           <t>DALLAH HEALTH</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="1" t="inlineStr"/>
+      <c r="C102" t="n">
         <v>54</v>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>74</v>
       </c>
-      <c r="D102" t="n">
+      <c r="E102" t="n">
         <v>88</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>55</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>66</v>
       </c>
     </row>
@@ -2691,19 +2797,20 @@
           <t>DAR ALARKAN</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="1" t="inlineStr"/>
+      <c r="C103" t="n">
         <v>92</v>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>57</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>17</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>24</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>43</v>
       </c>
     </row>
@@ -2713,19 +2820,20 @@
           <t>DERAYAH</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="1" t="inlineStr"/>
+      <c r="C104" t="n">
         <v>42</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>29</v>
-      </c>
-      <c r="D104" t="n">
-        <v>95</v>
       </c>
       <c r="E104" t="n">
         <v>95</v>
       </c>
       <c r="F104" t="n">
+        <v>95</v>
+      </c>
+      <c r="G104" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2735,19 +2843,20 @@
           <t>DERAYAH REIT</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="1" t="inlineStr"/>
+      <c r="C105" t="n">
         <v>74</v>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>80</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>71</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>58</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>69</v>
       </c>
     </row>
@@ -2757,19 +2866,20 @@
           <t>DUR</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="1" t="inlineStr"/>
+      <c r="C106" t="n">
         <v>89</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>83</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>79</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>76</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>81</v>
       </c>
     </row>
@@ -2779,19 +2889,20 @@
           <t>DWF</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="1" t="inlineStr"/>
+      <c r="C107" t="n">
         <v>68</v>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>73</v>
       </c>
-      <c r="D107" t="n">
+      <c r="E107" t="n">
         <v>90</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>30</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>59</v>
       </c>
     </row>
@@ -2801,19 +2912,20 @@
           <t>EAST PIPES</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="1" t="inlineStr"/>
+      <c r="C108" t="n">
         <v>78</v>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>69</v>
       </c>
-      <c r="D108" t="n">
+      <c r="E108" t="n">
         <v>96</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>98</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2823,11 +2935,9 @@
           <t>EIC</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="1" t="inlineStr"/>
+      <c r="C109" t="n">
         <v>98</v>
-      </c>
-      <c r="C109" t="n">
-        <v>99</v>
       </c>
       <c r="D109" t="n">
         <v>99</v>
@@ -2838,6 +2948,9 @@
       <c r="F109" t="n">
         <v>99</v>
       </c>
+      <c r="G109" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2845,19 +2958,20 @@
           <t>ELM</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="1" t="inlineStr"/>
+      <c r="C110" t="n">
         <v>32</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>36</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>26</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>38</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2867,19 +2981,20 @@
           <t>EMAAR EC</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="1" t="inlineStr"/>
+      <c r="C111" t="n">
         <v>22</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>28</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>40</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>38</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2889,19 +3004,20 @@
           <t>ENAYA</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="1" t="inlineStr"/>
+      <c r="C112" t="n">
         <v>11</v>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>10</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>23</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>10</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2911,19 +3027,20 @@
           <t>ENTAJ</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="1" t="inlineStr"/>
+      <c r="C113" t="n">
         <v>7</v>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>3</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>20</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>41</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2933,19 +3050,20 @@
           <t>EPCCO</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="1" t="inlineStr"/>
+      <c r="C114" t="n">
         <v>27</v>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>21</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>13</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>35</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>27</v>
       </c>
     </row>
@@ -2955,19 +3073,20 @@
           <t>EQUIPMENT HOUSE</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="1" t="inlineStr"/>
+      <c r="C115" t="n">
         <v>20</v>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>36</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>51</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>34</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>35</v>
       </c>
     </row>
@@ -2977,19 +3096,20 @@
           <t>ETIHAD ETISALAT</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="1" t="inlineStr"/>
+      <c r="C116" t="n">
         <v>97</v>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>96</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>97</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>90</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>95</v>
       </c>
     </row>
@@ -2999,19 +3119,20 @@
           <t>EXTRA</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="1" t="inlineStr"/>
+      <c r="C117" t="n">
         <v>73</v>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>65</v>
-      </c>
-      <c r="D117" t="n">
-        <v>75</v>
       </c>
       <c r="E117" t="n">
         <v>75</v>
       </c>
       <c r="F117" t="n">
+        <v>75</v>
+      </c>
+      <c r="G117" t="n">
         <v>73</v>
       </c>
     </row>
@@ -3021,19 +3142,20 @@
           <t>FAKEEH CARE</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="1" t="inlineStr"/>
+      <c r="C118" t="n">
         <v>6</v>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>16</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>33</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>39</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3043,19 +3165,20 @@
           <t>FARM SUPERSTORES</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>20</v>
-      </c>
+      <c r="B119" s="1" t="inlineStr"/>
       <c r="C119" t="n">
         <v>20</v>
       </c>
       <c r="D119" t="n">
+        <v>20</v>
+      </c>
+      <c r="E119" t="n">
         <v>25</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>27</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3065,19 +3188,20 @@
           <t>FIPCO</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="1" t="inlineStr"/>
+      <c r="C120" t="n">
         <v>28</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>34</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>49</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>13</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>28</v>
       </c>
     </row>
@@ -3087,19 +3211,20 @@
           <t>FIRST MILLS</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="1" t="inlineStr"/>
+      <c r="C121" t="n">
         <v>48</v>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>47</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>52</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>57</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>53</v>
       </c>
     </row>
@@ -3109,19 +3234,20 @@
           <t>FITAIHI GROUP</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>24</v>
-      </c>
+      <c r="B122" s="1" t="inlineStr"/>
       <c r="C122" t="n">
         <v>24</v>
       </c>
       <c r="D122" t="n">
+        <v>24</v>
+      </c>
+      <c r="E122" t="n">
         <v>29</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>61</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3131,19 +3257,20 @@
           <t>FLYNAS</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="1" t="inlineStr"/>
+      <c r="C123" t="n">
         <v>58</v>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>54</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>33</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>22</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3153,19 +3280,20 @@
           <t>FOURTH MILLING</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="1" t="inlineStr"/>
+      <c r="C124" t="n">
         <v>65</v>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>70</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>72</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>60</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>66</v>
       </c>
     </row>
@@ -3175,19 +3303,20 @@
           <t>GACO</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="1" t="inlineStr"/>
+      <c r="C125" t="n">
         <v>59</v>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>61</v>
-      </c>
-      <c r="D125" t="n">
-        <v>65</v>
       </c>
       <c r="E125" t="n">
         <v>65</v>
       </c>
       <c r="F125" t="n">
+        <v>65</v>
+      </c>
+      <c r="G125" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3197,19 +3326,20 @@
           <t>GAS</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="1" t="inlineStr"/>
+      <c r="C126" t="n">
         <v>63</v>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>55</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>37</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>17</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>38</v>
       </c>
     </row>
@@ -3219,19 +3349,20 @@
           <t>GASCO</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="1" t="inlineStr"/>
+      <c r="C127" t="n">
         <v>51</v>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>60</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>93</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>91</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>78</v>
       </c>
     </row>
@@ -3241,19 +3372,20 @@
           <t>GIG</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="1" t="inlineStr"/>
+      <c r="C128" t="n">
         <v>38</v>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>53</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>57</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>49</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3263,19 +3395,20 @@
           <t>GO TELECOM</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="1" t="inlineStr"/>
+      <c r="C129" t="n">
         <v>49</v>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>88</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>65</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>15</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3285,19 +3418,20 @@
           <t>GULF GENERAL</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="1" t="inlineStr"/>
+      <c r="C130" t="n">
         <v>0</v>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>1</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>4</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>35</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3307,19 +3441,20 @@
           <t>GULF UNION ALAHLIA</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="1" t="inlineStr"/>
+      <c r="C131" t="n">
         <v>35</v>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>25</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>11</v>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>52</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>35</v>
       </c>
     </row>
@@ -3329,19 +3464,20 @@
           <t>HB</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="1" t="inlineStr"/>
+      <c r="C132" t="n">
         <v>14</v>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>17</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>16</v>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>26</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3351,19 +3487,20 @@
           <t>HCC</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="1" t="inlineStr"/>
+      <c r="C133" t="n">
         <v>90</v>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>83</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>79</v>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>71</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>79</v>
       </c>
     </row>
@@ -3373,19 +3510,20 @@
           <t>HERFY FOODS</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="1" t="inlineStr"/>
+      <c r="C134" t="n">
         <v>17</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>31</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>9</v>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>5</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3395,19 +3533,20 @@
           <t>JABAL OMAR</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="1" t="inlineStr"/>
+      <c r="C135" t="n">
         <v>39</v>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>8</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>9</v>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>16</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3417,19 +3556,20 @@
           <t>JADWA REIT ALHARAMAIN</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="1" t="inlineStr"/>
+      <c r="C136" t="n">
         <v>57</v>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>42</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>31</v>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>50</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3439,19 +3579,20 @@
           <t>JADWA REIT SAUDI</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="1" t="inlineStr"/>
+      <c r="C137" t="n">
         <v>93</v>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>95</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>92</v>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>87</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>91</v>
       </c>
     </row>
@@ -3461,19 +3602,20 @@
           <t>JAHEZ</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>4</v>
-      </c>
+      <c r="B138" s="1" t="inlineStr"/>
       <c r="C138" t="n">
         <v>4</v>
       </c>
       <c r="D138" t="n">
+        <v>4</v>
+      </c>
+      <c r="E138" t="n">
         <v>1</v>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>6</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3483,19 +3625,20 @@
           <t>JAMJOOM PHARMA</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="1" t="inlineStr"/>
+      <c r="C139" t="n">
         <v>81</v>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>66</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>38</v>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>64</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>63</v>
       </c>
     </row>
@@ -3505,19 +3648,20 @@
           <t>JARIR</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="1" t="inlineStr"/>
+      <c r="C140" t="n">
         <v>81</v>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>87</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>83</v>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>64</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>76</v>
       </c>
     </row>
@@ -3527,19 +3671,20 @@
           <t>JAZADCO</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="1" t="inlineStr"/>
+      <c r="C141" t="n">
         <v>34</v>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>20</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>44</v>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>23</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3549,19 +3694,20 @@
           <t>JAZIRA TAKAFUL</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="1" t="inlineStr"/>
+      <c r="C142" t="n">
         <v>36</v>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>35</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>37</v>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>53</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>43</v>
       </c>
     </row>
@@ -3571,19 +3717,20 @@
           <t>JOUF CEMENT</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="1" t="inlineStr"/>
+      <c r="C143" t="n">
         <v>24</v>
       </c>
-      <c r="C143" t="n">
+      <c r="D143" t="n">
         <v>11</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>18</v>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>83</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>44</v>
       </c>
     </row>
@@ -3593,19 +3740,20 @@
           <t>KEC</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>63</v>
-      </c>
+      <c r="B144" s="1" t="inlineStr"/>
       <c r="C144" t="n">
         <v>63</v>
       </c>
       <c r="D144" t="n">
+        <v>63</v>
+      </c>
+      <c r="E144" t="n">
         <v>51</v>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>61</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>60</v>
       </c>
     </row>
@@ -3615,19 +3763,20 @@
           <t>KINGDOM</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="1" t="inlineStr"/>
+      <c r="C145" t="n">
         <v>64</v>
       </c>
-      <c r="C145" t="n">
+      <c r="D145" t="n">
         <v>89</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>45</v>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>84</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>74</v>
       </c>
     </row>
@@ -3637,19 +3786,20 @@
           <t>LAZURDE</t>
         </is>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="1" t="inlineStr"/>
+      <c r="C146" t="n">
         <v>60</v>
       </c>
-      <c r="C146" t="n">
+      <c r="D146" t="n">
         <v>68</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>61</v>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>34</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3659,19 +3809,20 @@
           <t>LEEJAM SPORTS</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="1" t="inlineStr"/>
+      <c r="C147" t="n">
         <v>15</v>
       </c>
-      <c r="C147" t="n">
+      <c r="D147" t="n">
         <v>26</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>43</v>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>4</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3681,19 +3832,20 @@
           <t>LIVA</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="1" t="inlineStr"/>
+      <c r="C148" t="n">
         <v>27</v>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>17</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>63</v>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>60</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>46</v>
       </c>
     </row>
@@ -3703,19 +3855,20 @@
           <t>LUBEREF</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="1" t="inlineStr"/>
+      <c r="C149" t="n">
         <v>56</v>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>69</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>56</v>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>93</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>74</v>
       </c>
     </row>
@@ -3725,19 +3878,20 @@
           <t>LUMI</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>30</v>
-      </c>
+      <c r="B150" s="1" t="inlineStr"/>
       <c r="C150" t="n">
         <v>30</v>
       </c>
       <c r="D150" t="n">
+        <v>30</v>
+      </c>
+      <c r="E150" t="n">
         <v>38</v>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>37</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>35</v>
       </c>
     </row>
@@ -3747,19 +3901,20 @@
           <t>MAADANIYAH</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="1" t="inlineStr"/>
+      <c r="C151" t="n">
         <v>46</v>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>64</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>86</v>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>32</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>52</v>
       </c>
     </row>
@@ -3769,19 +3924,20 @@
           <t>MAADEN</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="1" t="inlineStr"/>
+      <c r="C152" t="n">
         <v>96</v>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>98</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>96</v>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>91</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>95</v>
       </c>
     </row>
@@ -3791,19 +3947,20 @@
           <t>MAHARAH</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="1" t="inlineStr"/>
+      <c r="C153" t="n">
         <v>70</v>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>71</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>94</v>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>96</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>86</v>
       </c>
     </row>
@@ -3813,19 +3970,20 @@
           <t>MALATH INSURANCE</t>
         </is>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="1" t="inlineStr"/>
+      <c r="C154" t="n">
         <v>19</v>
       </c>
-      <c r="C154" t="n">
+      <c r="D154" t="n">
         <v>33</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>14</v>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>7</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>16</v>
       </c>
     </row>
@@ -3835,19 +3993,20 @@
           <t>MARAFIQ</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="1" t="inlineStr"/>
+      <c r="C155" t="n">
         <v>25</v>
       </c>
-      <c r="C155" t="n">
+      <c r="D155" t="n">
         <v>39</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>52</v>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>82</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>57</v>
       </c>
     </row>
@@ -3857,19 +4016,20 @@
           <t>MASAR</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="1" t="inlineStr"/>
+      <c r="C156" t="n">
         <v>79</v>
       </c>
-      <c r="C156" t="n">
+      <c r="D156" t="n">
         <v>72</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>25</v>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>10</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>40</v>
       </c>
     </row>
@@ -3879,19 +4039,20 @@
           <t>MBC GROUP</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="1" t="inlineStr"/>
+      <c r="C157" t="n">
         <v>9</v>
       </c>
-      <c r="C157" t="n">
+      <c r="D157" t="n">
         <v>25</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>9</v>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>94</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>47</v>
       </c>
     </row>
@@ -3901,19 +4062,20 @@
           <t>MCDC</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="1" t="inlineStr"/>
+      <c r="C158" t="n">
         <v>77</v>
       </c>
-      <c r="C158" t="n">
+      <c r="D158" t="n">
         <v>35</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>59</v>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>98</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>74</v>
       </c>
     </row>
@@ -3923,19 +4085,20 @@
           <t>MEDGULF</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="1" t="inlineStr"/>
+      <c r="C159" t="n">
         <v>16</v>
-      </c>
-      <c r="C159" t="n">
-        <v>4</v>
       </c>
       <c r="D159" t="n">
         <v>4</v>
       </c>
       <c r="E159" t="n">
+        <v>4</v>
+      </c>
+      <c r="F159" t="n">
         <v>15</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3945,19 +4108,20 @@
           <t>MEFIC REIT</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="1" t="inlineStr"/>
+      <c r="C160" t="n">
         <v>64</v>
       </c>
-      <c r="C160" t="n">
+      <c r="D160" t="n">
         <v>63</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>57</v>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>54</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>59</v>
       </c>
     </row>
@@ -3967,19 +4131,20 @@
           <t>MEPCO</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="1" t="inlineStr"/>
+      <c r="C161" t="n">
         <v>18</v>
       </c>
-      <c r="C161" t="n">
+      <c r="D161" t="n">
         <v>39</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>31</v>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>28</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3989,19 +4154,20 @@
           <t>MESC</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="1" t="inlineStr"/>
+      <c r="C162" t="n">
         <v>13</v>
       </c>
-      <c r="C162" t="n">
+      <c r="D162" t="n">
         <v>9</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>10</v>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>6</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4011,19 +4177,20 @@
           <t>METLIFE AIG ANB</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="1" t="inlineStr"/>
+      <c r="C163" t="n">
         <v>76</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D163" t="n">
         <v>83</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>79</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>9</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>52</v>
       </c>
     </row>
@@ -4033,19 +4200,20 @@
           <t>MIAHONA</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="1" t="inlineStr"/>
+      <c r="C164" t="n">
         <v>31</v>
       </c>
-      <c r="C164" t="n">
+      <c r="D164" t="n">
         <v>71</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>24</v>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>15</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>32</v>
       </c>
     </row>
@@ -4055,19 +4223,20 @@
           <t>MIS</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="1" t="inlineStr"/>
+      <c r="C165" t="n">
         <v>76</v>
       </c>
-      <c r="C165" t="n">
+      <c r="D165" t="n">
         <v>97</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>95</v>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>96</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>92</v>
       </c>
     </row>
@@ -4077,19 +4246,20 @@
           <t>MMG</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="1" t="inlineStr"/>
+      <c r="C166" t="n">
         <v>87</v>
       </c>
-      <c r="C166" t="n">
+      <c r="D166" t="n">
         <v>83</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>79</v>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>71</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>79</v>
       </c>
     </row>
@@ -4099,19 +4269,20 @@
           <t>MODERN MILLS</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="1" t="inlineStr"/>
+      <c r="C167" t="n">
         <v>45</v>
       </c>
-      <c r="C167" t="n">
+      <c r="D167" t="n">
         <v>50</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>53</v>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>77</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>61</v>
       </c>
     </row>
@@ -4121,19 +4292,20 @@
           <t>MOUWASAT</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="1" t="inlineStr"/>
+      <c r="C168" t="n">
         <v>43</v>
       </c>
-      <c r="C168" t="n">
+      <c r="D168" t="n">
         <v>74</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>61</v>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>42</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4143,19 +4315,20 @@
           <t>MRNA</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="1" t="inlineStr"/>
+      <c r="C169" t="n">
         <v>71</v>
       </c>
-      <c r="C169" t="n">
+      <c r="D169" t="n">
         <v>60</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>39</v>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>33</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>48</v>
       </c>
     </row>
@@ -4165,19 +4338,20 @@
           <t>MULKIA REIT</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="1" t="inlineStr"/>
+      <c r="C170" t="n">
         <v>63</v>
-      </c>
-      <c r="C170" t="n">
-        <v>67</v>
       </c>
       <c r="D170" t="n">
         <v>67</v>
       </c>
       <c r="E170" t="n">
+        <v>67</v>
+      </c>
+      <c r="F170" t="n">
         <v>77</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>71</v>
       </c>
     </row>
@@ -4187,19 +4361,20 @@
           <t>MUSHARAKA REIT</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="1" t="inlineStr"/>
+      <c r="C171" t="n">
         <v>64</v>
       </c>
-      <c r="C171" t="n">
+      <c r="D171" t="n">
         <v>72</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>66</v>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>56</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>63</v>
       </c>
     </row>
@@ -4209,19 +4384,20 @@
           <t>MUTAKAMELA</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="1" t="inlineStr"/>
+      <c r="C172" t="n">
         <v>49</v>
       </c>
-      <c r="C172" t="n">
+      <c r="D172" t="n">
         <v>43</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>21</v>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>30</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>35</v>
       </c>
     </row>
@@ -4231,19 +4407,20 @@
           <t>NADEC</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="1" t="inlineStr"/>
+      <c r="C173" t="n">
         <v>32</v>
       </c>
-      <c r="C173" t="n">
+      <c r="D173" t="n">
         <v>28</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>46</v>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>27</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>32</v>
       </c>
     </row>
@@ -4253,19 +4430,20 @@
           <t>NAHDI</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="1" t="inlineStr"/>
+      <c r="C174" t="n">
         <v>61</v>
       </c>
-      <c r="C174" t="n">
+      <c r="D174" t="n">
         <v>59</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>28</v>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>31</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>42</v>
       </c>
     </row>
@@ -4275,19 +4453,20 @@
           <t>NAJRAN CEMENT</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="1" t="inlineStr"/>
+      <c r="C175" t="n">
         <v>39</v>
       </c>
-      <c r="C175" t="n">
+      <c r="D175" t="n">
         <v>46</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>26</v>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>18</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>30</v>
       </c>
     </row>
@@ -4297,19 +4476,20 @@
           <t>NAMA CHEMICALS</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="1" t="inlineStr"/>
+      <c r="C176" t="n">
         <v>62</v>
       </c>
-      <c r="C176" t="n">
+      <c r="D176" t="n">
         <v>41</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>29</v>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>38</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>42</v>
       </c>
     </row>
@@ -4319,19 +4499,20 @@
           <t>NAQI</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="1" t="inlineStr"/>
+      <c r="C177" t="n">
         <v>61</v>
       </c>
-      <c r="C177" t="n">
+      <c r="D177" t="n">
         <v>75</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>88</v>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>89</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>81</v>
       </c>
     </row>
@@ -4341,9 +4522,7 @@
           <t>NASEEJ</t>
         </is>
       </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
+      <c r="B178" s="1" t="inlineStr"/>
       <c r="C178" t="n">
         <v>1</v>
       </c>
@@ -4351,9 +4530,12 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
         <v>0</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4363,19 +4545,20 @@
           <t>NAYIFAT</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="1" t="inlineStr"/>
+      <c r="C179" t="n">
         <v>69</v>
       </c>
-      <c r="C179" t="n">
+      <c r="D179" t="n">
         <v>67</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>83</v>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>65</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>70</v>
       </c>
     </row>
@@ -4385,19 +4568,20 @@
           <t>NCLE</t>
         </is>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="1" t="inlineStr"/>
+      <c r="C180" t="n">
         <v>17</v>
       </c>
-      <c r="C180" t="n">
+      <c r="D180" t="n">
         <v>56</v>
-      </c>
-      <c r="D180" t="n">
-        <v>51</v>
       </c>
       <c r="E180" t="n">
         <v>51</v>
       </c>
       <c r="F180" t="n">
+        <v>51</v>
+      </c>
+      <c r="G180" t="n">
         <v>46</v>
       </c>
     </row>
@@ -4407,19 +4591,20 @@
           <t>NGC</t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="1" t="inlineStr"/>
+      <c r="C181" t="n">
         <v>41</v>
       </c>
-      <c r="C181" t="n">
+      <c r="D181" t="n">
         <v>40</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>46</v>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>32</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>39</v>
       </c>
     </row>
@@ -4429,9 +4614,7 @@
           <t>NICE ONE</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>1</v>
-      </c>
+      <c r="B182" s="1" t="inlineStr"/>
       <c r="C182" t="n">
         <v>1</v>
       </c>
@@ -4439,9 +4622,12 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
         <v>9</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4451,19 +4637,20 @@
           <t>NORTHERN CEMENT</t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="1" t="inlineStr"/>
+      <c r="C183" t="n">
         <v>55</v>
       </c>
-      <c r="C183" t="n">
+      <c r="D183" t="n">
         <v>45</v>
-      </c>
-      <c r="D183" t="n">
-        <v>54</v>
       </c>
       <c r="E183" t="n">
         <v>54</v>
       </c>
       <c r="F183" t="n">
+        <v>54</v>
+      </c>
+      <c r="G183" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4473,19 +4660,20 @@
           <t>OASIS</t>
         </is>
       </c>
-      <c r="B184" t="n">
-        <v>26</v>
-      </c>
+      <c r="B184" s="1" t="inlineStr"/>
       <c r="C184" t="n">
         <v>26</v>
       </c>
       <c r="D184" t="n">
+        <v>26</v>
+      </c>
+      <c r="E184" t="n">
         <v>44</v>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>48</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>39</v>
       </c>
     </row>
@@ -4495,19 +4683,20 @@
           <t>OBEIKAN GLASS</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="1" t="inlineStr"/>
+      <c r="C185" t="n">
         <v>35</v>
       </c>
-      <c r="C185" t="n">
+      <c r="D185" t="n">
         <v>23</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>7</v>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>61</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>38</v>
       </c>
     </row>
@@ -4517,19 +4706,20 @@
           <t>PETRO RABIGH</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="1" t="inlineStr"/>
+      <c r="C186" t="n">
         <v>72</v>
       </c>
-      <c r="C186" t="n">
+      <c r="D186" t="n">
         <v>92</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>89</v>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>92</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>88</v>
       </c>
     </row>
@@ -4539,19 +4729,20 @@
           <t>PETROCHEM</t>
         </is>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="1" t="inlineStr"/>
+      <c r="C187" t="n">
         <v>87</v>
       </c>
-      <c r="C187" t="n">
+      <c r="D187" t="n">
         <v>83</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>79</v>
       </c>
-      <c r="E187" t="n">
+      <c r="F187" t="n">
         <v>62</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4561,19 +4752,20 @@
           <t>QACCO</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="1" t="inlineStr"/>
+      <c r="C188" t="n">
         <v>49</v>
       </c>
-      <c r="C188" t="n">
+      <c r="D188" t="n">
         <v>52</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>30</v>
       </c>
-      <c r="E188" t="n">
+      <c r="F188" t="n">
         <v>85</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>61</v>
       </c>
     </row>
@@ -4583,19 +4775,20 @@
           <t>RAOOM</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" s="1" t="inlineStr"/>
+      <c r="C189" t="n">
         <v>20</v>
       </c>
-      <c r="C189" t="n">
+      <c r="D189" t="n">
         <v>19</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>41</v>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>88</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>52</v>
       </c>
     </row>
@@ -4605,9 +4798,7 @@
           <t>RASAN</t>
         </is>
       </c>
-      <c r="B190" t="n">
-        <v>99</v>
-      </c>
+      <c r="B190" s="1" t="inlineStr"/>
       <c r="C190" t="n">
         <v>99</v>
       </c>
@@ -4615,9 +4806,12 @@
         <v>99</v>
       </c>
       <c r="E190" t="n">
+        <v>99</v>
+      </c>
+      <c r="F190" t="n">
         <v>97</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>99</v>
       </c>
     </row>
@@ -4627,19 +4821,20 @@
           <t>RAYDAN</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" s="1" t="inlineStr"/>
+      <c r="C191" t="n">
         <v>10</v>
       </c>
-      <c r="C191" t="n">
+      <c r="D191" t="n">
         <v>6</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>48</v>
       </c>
-      <c r="E191" t="n">
+      <c r="F191" t="n">
         <v>33</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>26</v>
       </c>
     </row>
@@ -4649,19 +4844,20 @@
           <t>RED SEA</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" s="1" t="inlineStr"/>
+      <c r="C192" t="n">
         <v>11</v>
       </c>
-      <c r="C192" t="n">
+      <c r="D192" t="n">
         <v>37</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>60</v>
       </c>
-      <c r="E192" t="n">
+      <c r="F192" t="n">
         <v>13</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>27</v>
       </c>
     </row>
@@ -4671,19 +4867,20 @@
           <t>RETAL</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" s="1" t="inlineStr"/>
+      <c r="C193" t="n">
         <v>33</v>
       </c>
-      <c r="C193" t="n">
+      <c r="D193" t="n">
         <v>44</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>25</v>
       </c>
-      <c r="E193" t="n">
+      <c r="F193" t="n">
         <v>90</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>57</v>
       </c>
     </row>
@@ -4693,19 +4890,20 @@
           <t>RIBL</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" s="1" t="inlineStr"/>
+      <c r="C194" t="n">
         <v>82</v>
       </c>
-      <c r="C194" t="n">
+      <c r="D194" t="n">
         <v>65</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>62</v>
       </c>
-      <c r="E194" t="n">
+      <c r="F194" t="n">
         <v>81</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>75</v>
       </c>
     </row>
@@ -4715,19 +4913,20 @@
           <t>RIYAD REIT</t>
         </is>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" s="1" t="inlineStr"/>
+      <c r="C195" t="n">
         <v>48</v>
       </c>
-      <c r="C195" t="n">
+      <c r="D195" t="n">
         <v>41</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>49</v>
       </c>
-      <c r="E195" t="n">
+      <c r="F195" t="n">
         <v>67</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>55</v>
       </c>
     </row>
@@ -4737,19 +4936,20 @@
           <t>RIYADH CABLES</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" s="1" t="inlineStr"/>
+      <c r="C196" t="n">
         <v>70</v>
       </c>
-      <c r="C196" t="n">
+      <c r="D196" t="n">
         <v>77</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>45</v>
       </c>
-      <c r="E196" t="n">
+      <c r="F196" t="n">
         <v>82</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>72</v>
       </c>
     </row>
@@ -4759,19 +4959,20 @@
           <t>RIYADH CEMENT</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="1" t="inlineStr"/>
+      <c r="C197" t="n">
         <v>38</v>
       </c>
-      <c r="C197" t="n">
+      <c r="D197" t="n">
         <v>15</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>11</v>
       </c>
-      <c r="E197" t="n">
+      <c r="F197" t="n">
         <v>8</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>16</v>
       </c>
     </row>
@@ -4781,19 +4982,20 @@
           <t>SAB</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" s="1" t="inlineStr"/>
+      <c r="C198" t="n">
         <v>83</v>
       </c>
-      <c r="C198" t="n">
+      <c r="D198" t="n">
         <v>59</v>
       </c>
-      <c r="D198" t="n">
+      <c r="E198" t="n">
         <v>69</v>
       </c>
-      <c r="E198" t="n">
+      <c r="F198" t="n">
         <v>84</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>76</v>
       </c>
     </row>
@@ -4803,19 +5005,20 @@
           <t>SABB TAKAFUL</t>
         </is>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" s="1" t="inlineStr"/>
+      <c r="C199" t="n">
         <v>87</v>
       </c>
-      <c r="C199" t="n">
+      <c r="D199" t="n">
         <v>83</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>79</v>
       </c>
-      <c r="E199" t="n">
+      <c r="F199" t="n">
         <v>71</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>79</v>
       </c>
     </row>
@@ -4825,19 +5028,20 @@
           <t>SABIC</t>
         </is>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" s="1" t="inlineStr"/>
+      <c r="C200" t="n">
         <v>52</v>
       </c>
-      <c r="C200" t="n">
+      <c r="D200" t="n">
         <v>59</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>76</v>
       </c>
-      <c r="E200" t="n">
+      <c r="F200" t="n">
         <v>41</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>54</v>
       </c>
     </row>
@@ -4847,19 +5051,20 @@
           <t>SABIC AGRI-NUTRIENTS</t>
         </is>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" s="1" t="inlineStr"/>
+      <c r="C201" t="n">
         <v>93</v>
       </c>
-      <c r="C201" t="n">
+      <c r="D201" t="n">
         <v>92</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>97</v>
       </c>
-      <c r="E201" t="n">
+      <c r="F201" t="n">
         <v>79</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>88</v>
       </c>
     </row>
@@ -4869,19 +5074,20 @@
           <t>SACO</t>
         </is>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" s="1" t="inlineStr"/>
+      <c r="C202" t="n">
         <v>54</v>
       </c>
-      <c r="C202" t="n">
+      <c r="D202" t="n">
         <v>57</v>
       </c>
-      <c r="D202" t="n">
+      <c r="E202" t="n">
         <v>59</v>
       </c>
-      <c r="E202" t="n">
+      <c r="F202" t="n">
         <v>68</v>
       </c>
-      <c r="F202" t="n">
+      <c r="G202" t="n">
         <v>62</v>
       </c>
     </row>
@@ -4891,19 +5097,20 @@
           <t>SADAFCO</t>
         </is>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="1" t="inlineStr"/>
+      <c r="C203" t="n">
         <v>31</v>
       </c>
-      <c r="C203" t="n">
+      <c r="D203" t="n">
         <v>33</v>
       </c>
-      <c r="D203" t="n">
+      <c r="E203" t="n">
         <v>41</v>
       </c>
-      <c r="E203" t="n">
+      <c r="F203" t="n">
         <v>45</v>
       </c>
-      <c r="F203" t="n">
+      <c r="G203" t="n">
         <v>39</v>
       </c>
     </row>
@@ -4913,19 +5120,20 @@
           <t>SADR</t>
         </is>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" s="1" t="inlineStr"/>
+      <c r="C204" t="n">
         <v>57</v>
       </c>
-      <c r="C204" t="n">
+      <c r="D204" t="n">
         <v>62</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>70</v>
       </c>
-      <c r="E204" t="n">
+      <c r="F204" t="n">
         <v>56</v>
       </c>
-      <c r="F204" t="n">
+      <c r="G204" t="n">
         <v>61</v>
       </c>
     </row>
@@ -4935,19 +5143,20 @@
           <t>SAIB</t>
         </is>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="1" t="inlineStr"/>
+      <c r="C205" t="n">
         <v>71</v>
       </c>
-      <c r="C205" t="n">
+      <c r="D205" t="n">
         <v>69</v>
       </c>
-      <c r="D205" t="n">
+      <c r="E205" t="n">
         <v>48</v>
       </c>
-      <c r="E205" t="n">
+      <c r="F205" t="n">
         <v>60</v>
       </c>
-      <c r="F205" t="n">
+      <c r="G205" t="n">
         <v>62</v>
       </c>
     </row>
@@ -4957,19 +5166,20 @@
           <t>SAIC</t>
         </is>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" s="1" t="inlineStr"/>
+      <c r="C206" t="n">
         <v>6</v>
       </c>
-      <c r="C206" t="n">
+      <c r="D206" t="n">
         <v>5</v>
       </c>
-      <c r="D206" t="n">
+      <c r="E206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" t="n">
+      <c r="F206" t="n">
         <v>6</v>
       </c>
-      <c r="F206" t="n">
+      <c r="G206" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4979,19 +5189,20 @@
           <t>SAICO</t>
         </is>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" s="1" t="inlineStr"/>
+      <c r="C207" t="n">
         <v>51</v>
       </c>
-      <c r="C207" t="n">
+      <c r="D207" t="n">
         <v>32</v>
       </c>
-      <c r="D207" t="n">
+      <c r="E207" t="n">
         <v>22</v>
       </c>
-      <c r="E207" t="n">
+      <c r="F207" t="n">
         <v>46</v>
       </c>
-      <c r="F207" t="n">
+      <c r="G207" t="n">
         <v>40</v>
       </c>
     </row>
@@ -5001,19 +5212,20 @@
           <t>SAL</t>
         </is>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" s="1" t="inlineStr"/>
+      <c r="C208" t="n">
         <v>19</v>
       </c>
-      <c r="C208" t="n">
+      <c r="D208" t="n">
         <v>58</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>64</v>
       </c>
-      <c r="E208" t="n">
+      <c r="F208" t="n">
         <v>81</v>
       </c>
-      <c r="F208" t="n">
+      <c r="G208" t="n">
         <v>61</v>
       </c>
     </row>
@@ -5023,19 +5235,20 @@
           <t>SALAMA</t>
         </is>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" s="1" t="inlineStr"/>
+      <c r="C209" t="n">
         <v>7</v>
       </c>
-      <c r="C209" t="n">
+      <c r="D209" t="n">
         <v>8</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>18</v>
       </c>
-      <c r="E209" t="n">
+      <c r="F209" t="n">
         <v>17</v>
       </c>
-      <c r="F209" t="n">
+      <c r="G209" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5045,19 +5258,20 @@
           <t>SAMBA</t>
         </is>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" s="1" t="inlineStr"/>
+      <c r="C210" t="n">
         <v>87</v>
       </c>
-      <c r="C210" t="n">
+      <c r="D210" t="n">
         <v>83</v>
       </c>
-      <c r="D210" t="n">
+      <c r="E210" t="n">
         <v>89</v>
       </c>
-      <c r="E210" t="n">
+      <c r="F210" t="n">
         <v>85</v>
       </c>
-      <c r="F210" t="n">
+      <c r="G210" t="n">
         <v>86</v>
       </c>
     </row>
@@ -5067,19 +5281,20 @@
           <t>SANAD</t>
         </is>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" s="1" t="inlineStr"/>
+      <c r="C211" t="n">
         <v>87</v>
       </c>
-      <c r="C211" t="n">
+      <c r="D211" t="n">
         <v>83</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>79</v>
       </c>
-      <c r="E211" t="n">
+      <c r="F211" t="n">
         <v>71</v>
       </c>
-      <c r="F211" t="n">
+      <c r="G211" t="n">
         <v>79</v>
       </c>
     </row>
@@ -5089,19 +5304,20 @@
           <t>SAPTCO</t>
         </is>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" s="1" t="inlineStr"/>
+      <c r="C212" t="n">
         <v>2</v>
       </c>
-      <c r="C212" t="n">
+      <c r="D212" t="n">
         <v>7</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>12</v>
       </c>
-      <c r="E212" t="n">
+      <c r="F212" t="n">
         <v>5</v>
       </c>
-      <c r="F212" t="n">
+      <c r="G212" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5111,19 +5327,20 @@
           <t>SARCO</t>
         </is>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" s="1" t="inlineStr"/>
+      <c r="C213" t="n">
         <v>39</v>
       </c>
-      <c r="C213" t="n">
+      <c r="D213" t="n">
         <v>51</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>41</v>
       </c>
-      <c r="E213" t="n">
+      <c r="F213" t="n">
         <v>49</v>
       </c>
-      <c r="F213" t="n">
+      <c r="G213" t="n">
         <v>46</v>
       </c>
     </row>
@@ -5133,19 +5350,20 @@
           <t>SASCO</t>
         </is>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="1" t="inlineStr"/>
+      <c r="C214" t="n">
         <v>59</v>
       </c>
-      <c r="C214" t="n">
+      <c r="D214" t="n">
         <v>48</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>65</v>
       </c>
-      <c r="E214" t="n">
+      <c r="F214" t="n">
         <v>93</v>
       </c>
-      <c r="F214" t="n">
+      <c r="G214" t="n">
         <v>72</v>
       </c>
     </row>
@@ -5155,19 +5373,20 @@
           <t>SAUDI ARAMCO</t>
         </is>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="1" t="inlineStr"/>
+      <c r="C215" t="n">
         <v>67</v>
       </c>
-      <c r="C215" t="n">
+      <c r="D215" t="n">
         <v>66</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>71</v>
       </c>
-      <c r="E215" t="n">
+      <c r="F215" t="n">
         <v>86</v>
       </c>
-      <c r="F215" t="n">
+      <c r="G215" t="n">
         <v>76</v>
       </c>
     </row>
@@ -5177,19 +5396,20 @@
           <t>SAUDI CABLE</t>
         </is>
       </c>
-      <c r="B216" t="n">
+      <c r="B216" s="1" t="inlineStr"/>
+      <c r="C216" t="n">
         <v>99</v>
       </c>
-      <c r="C216" t="n">
+      <c r="D216" t="n">
         <v>96</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>76</v>
       </c>
-      <c r="E216" t="n">
+      <c r="F216" t="n">
         <v>52</v>
       </c>
-      <c r="F216" t="n">
+      <c r="G216" t="n">
         <v>75</v>
       </c>
     </row>
@@ -5199,19 +5419,20 @@
           <t>SAUDI CEMENT</t>
         </is>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" s="1" t="inlineStr"/>
+      <c r="C217" t="n">
         <v>65</v>
       </c>
-      <c r="C217" t="n">
+      <c r="D217" t="n">
         <v>55</v>
       </c>
-      <c r="D217" t="n">
+      <c r="E217" t="n">
         <v>50</v>
       </c>
-      <c r="E217" t="n">
+      <c r="F217" t="n">
         <v>43</v>
       </c>
-      <c r="F217" t="n">
+      <c r="G217" t="n">
         <v>52</v>
       </c>
     </row>
@@ -5221,19 +5442,20 @@
           <t>SAUDI CERAMICS</t>
         </is>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" s="1" t="inlineStr"/>
+      <c r="C218" t="n">
         <v>53</v>
       </c>
-      <c r="C218" t="n">
+      <c r="D218" t="n">
         <v>93</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>75</v>
       </c>
-      <c r="E218" t="n">
+      <c r="F218" t="n">
         <v>71</v>
       </c>
-      <c r="F218" t="n">
+      <c r="G218" t="n">
         <v>73</v>
       </c>
     </row>
@@ -5243,21 +5465,22 @@
           <t>SAUDI DARB</t>
         </is>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" s="1" t="inlineStr"/>
+      <c r="C219" t="n">
         <v>6</v>
       </c>
-      <c r="C219" t="n">
+      <c r="D219" t="n">
         <v>12</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>3</v>
-      </c>
-      <c r="E219" t="n">
-        <v>8</v>
       </c>
       <c r="F219" t="n">
         <v>8</v>
       </c>
+      <c r="G219" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -5265,19 +5488,20 @@
           <t>SAUDI ELECTRICITY</t>
         </is>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" s="1" t="inlineStr"/>
+      <c r="C220" t="n">
         <v>60</v>
       </c>
-      <c r="C220" t="n">
+      <c r="D220" t="n">
         <v>61</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>74</v>
       </c>
-      <c r="E220" t="n">
+      <c r="F220" t="n">
         <v>58</v>
       </c>
-      <c r="F220" t="n">
+      <c r="G220" t="n">
         <v>63</v>
       </c>
     </row>
@@ -5287,19 +5511,20 @@
           <t>SAUDI GERMAN HEALTH</t>
         </is>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" s="1" t="inlineStr"/>
+      <c r="C221" t="n">
         <v>4</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2</v>
       </c>
       <c r="D221" t="n">
         <v>2</v>
       </c>
       <c r="E221" t="n">
+        <v>2</v>
+      </c>
+      <c r="F221" t="n">
         <v>1</v>
       </c>
-      <c r="F221" t="n">
+      <c r="G221" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5309,19 +5534,20 @@
           <t>SAUDI KAYAN</t>
         </is>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" s="1" t="inlineStr"/>
+      <c r="C222" t="n">
         <v>42</v>
       </c>
-      <c r="C222" t="n">
+      <c r="D222" t="n">
         <v>60</v>
       </c>
-      <c r="D222" t="n">
+      <c r="E222" t="n">
         <v>90</v>
       </c>
-      <c r="E222" t="n">
+      <c r="F222" t="n">
         <v>88</v>
       </c>
-      <c r="F222" t="n">
+      <c r="G222" t="n">
         <v>74</v>
       </c>
     </row>
@@ -5331,19 +5557,20 @@
           <t>SAUDI RE</t>
         </is>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" s="1" t="inlineStr"/>
+      <c r="C223" t="n">
         <v>66</v>
       </c>
-      <c r="C223" t="n">
+      <c r="D223" t="n">
         <v>64</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>29</v>
       </c>
-      <c r="E223" t="n">
+      <c r="F223" t="n">
         <v>41</v>
       </c>
-      <c r="F223" t="n">
+      <c r="G223" t="n">
         <v>49</v>
       </c>
     </row>
@@ -5353,19 +5580,20 @@
           <t>SAVOLA GROUP</t>
         </is>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" s="1" t="inlineStr"/>
+      <c r="C224" t="n">
         <v>67</v>
       </c>
-      <c r="C224" t="n">
+      <c r="D224" t="n">
         <v>20</v>
       </c>
-      <c r="D224" t="n">
+      <c r="E224" t="n">
         <v>43</v>
       </c>
-      <c r="E224" t="n">
+      <c r="F224" t="n">
         <v>80</v>
       </c>
-      <c r="F224" t="n">
+      <c r="G224" t="n">
         <v>58</v>
       </c>
     </row>
@@ -5375,19 +5603,20 @@
           <t>SEDCO CAPITAL REIT</t>
         </is>
       </c>
-      <c r="B225" t="n">
+      <c r="B225" s="1" t="inlineStr"/>
+      <c r="C225" t="n">
         <v>42</v>
       </c>
-      <c r="C225" t="n">
+      <c r="D225" t="n">
         <v>47</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>56</v>
       </c>
-      <c r="E225" t="n">
+      <c r="F225" t="n">
         <v>32</v>
       </c>
-      <c r="F225" t="n">
+      <c r="G225" t="n">
         <v>42</v>
       </c>
     </row>
@@ -5397,19 +5626,20 @@
           <t>SEERA</t>
         </is>
       </c>
-      <c r="B226" t="n">
+      <c r="B226" s="1" t="inlineStr"/>
+      <c r="C226" t="n">
         <v>97</v>
       </c>
-      <c r="C226" t="n">
+      <c r="D226" t="n">
         <v>96</v>
       </c>
-      <c r="D226" t="n">
+      <c r="E226" t="n">
         <v>98</v>
       </c>
-      <c r="E226" t="n">
+      <c r="F226" t="n">
         <v>80</v>
       </c>
-      <c r="F226" t="n">
+      <c r="G226" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5419,19 +5649,20 @@
           <t>SENAAT</t>
         </is>
       </c>
-      <c r="B227" t="n">
+      <c r="B227" s="1" t="inlineStr"/>
+      <c r="C227" t="n">
         <v>95</v>
       </c>
-      <c r="C227" t="n">
+      <c r="D227" t="n">
         <v>98</v>
       </c>
-      <c r="D227" t="n">
+      <c r="E227" t="n">
         <v>55</v>
       </c>
-      <c r="E227" t="n">
+      <c r="F227" t="n">
         <v>94</v>
       </c>
-      <c r="F227" t="n">
+      <c r="G227" t="n">
         <v>88</v>
       </c>
     </row>
@@ -5441,19 +5672,20 @@
           <t>SFICO</t>
         </is>
       </c>
-      <c r="B228" t="n">
+      <c r="B228" s="1" t="inlineStr"/>
+      <c r="C228" t="n">
         <v>5</v>
       </c>
-      <c r="C228" t="n">
+      <c r="D228" t="n">
         <v>11</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>6</v>
       </c>
-      <c r="E228" t="n">
+      <c r="F228" t="n">
         <v>2</v>
       </c>
-      <c r="F228" t="n">
+      <c r="G228" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5463,19 +5695,20 @@
           <t>SGS</t>
         </is>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" s="1" t="inlineStr"/>
+      <c r="C229" t="n">
         <v>44</v>
       </c>
-      <c r="C229" t="n">
+      <c r="D229" t="n">
         <v>43</v>
       </c>
-      <c r="D229" t="n">
+      <c r="E229" t="n">
         <v>34</v>
       </c>
-      <c r="E229" t="n">
+      <c r="F229" t="n">
         <v>29</v>
       </c>
-      <c r="F229" t="n">
+      <c r="G229" t="n">
         <v>36</v>
       </c>
     </row>
@@ -5485,19 +5718,20 @@
           <t>SHAKER</t>
         </is>
       </c>
-      <c r="B230" t="n">
+      <c r="B230" s="1" t="inlineStr"/>
+      <c r="C230" t="n">
         <v>58</v>
       </c>
-      <c r="C230" t="n">
+      <c r="D230" t="n">
         <v>38</v>
       </c>
-      <c r="D230" t="n">
+      <c r="E230" t="n">
         <v>34</v>
       </c>
-      <c r="E230" t="n">
+      <c r="F230" t="n">
         <v>21</v>
       </c>
-      <c r="F230" t="n">
+      <c r="G230" t="n">
         <v>35</v>
       </c>
     </row>
@@ -5507,19 +5741,20 @@
           <t>SHARQIYAH DEV</t>
         </is>
       </c>
-      <c r="B231" t="n">
+      <c r="B231" s="1" t="inlineStr"/>
+      <c r="C231" t="n">
         <v>33</v>
       </c>
-      <c r="C231" t="n">
+      <c r="D231" t="n">
         <v>31</v>
       </c>
-      <c r="D231" t="n">
+      <c r="E231" t="n">
         <v>40</v>
       </c>
-      <c r="E231" t="n">
+      <c r="F231" t="n">
         <v>26</v>
       </c>
-      <c r="F231" t="n">
+      <c r="G231" t="n">
         <v>32</v>
       </c>
     </row>
@@ -5529,19 +5764,20 @@
           <t>SHL</t>
         </is>
       </c>
-      <c r="B232" t="n">
+      <c r="B232" s="1" t="inlineStr"/>
+      <c r="C232" t="n">
         <v>92</v>
       </c>
-      <c r="C232" t="n">
+      <c r="D232" t="n">
         <v>95</v>
       </c>
-      <c r="D232" t="n">
+      <c r="E232" t="n">
         <v>85</v>
       </c>
-      <c r="E232" t="n">
+      <c r="F232" t="n">
         <v>30</v>
       </c>
-      <c r="F232" t="n">
+      <c r="G232" t="n">
         <v>67</v>
       </c>
     </row>
@@ -5551,19 +5787,20 @@
           <t>SIDC</t>
         </is>
       </c>
-      <c r="B233" t="n">
+      <c r="B233" s="1" t="inlineStr"/>
+      <c r="C233" t="n">
         <v>30</v>
       </c>
-      <c r="C233" t="n">
+      <c r="D233" t="n">
         <v>21</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>8</v>
       </c>
-      <c r="E233" t="n">
+      <c r="F233" t="n">
         <v>1</v>
       </c>
-      <c r="F233" t="n">
+      <c r="G233" t="n">
         <v>13</v>
       </c>
     </row>
@@ -5573,19 +5810,20 @@
           <t>SIECO</t>
         </is>
       </c>
-      <c r="B234" t="n">
+      <c r="B234" s="1" t="inlineStr"/>
+      <c r="C234" t="n">
         <v>46</v>
       </c>
-      <c r="C234" t="n">
+      <c r="D234" t="n">
         <v>45</v>
-      </c>
-      <c r="D234" t="n">
-        <v>42</v>
       </c>
       <c r="E234" t="n">
         <v>42</v>
       </c>
       <c r="F234" t="n">
+        <v>42</v>
+      </c>
+      <c r="G234" t="n">
         <v>44</v>
       </c>
     </row>
@@ -5595,19 +5833,20 @@
           <t>SIIG</t>
         </is>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" s="1" t="inlineStr"/>
+      <c r="C235" t="n">
         <v>44</v>
       </c>
-      <c r="C235" t="n">
+      <c r="D235" t="n">
         <v>52</v>
       </c>
-      <c r="D235" t="n">
+      <c r="E235" t="n">
         <v>19</v>
       </c>
-      <c r="E235" t="n">
+      <c r="F235" t="n">
         <v>2</v>
       </c>
-      <c r="F235" t="n">
+      <c r="G235" t="n">
         <v>24</v>
       </c>
     </row>
@@ -5617,19 +5856,20 @@
           <t>SINAD HOLDING</t>
         </is>
       </c>
-      <c r="B236" t="n">
+      <c r="B236" s="1" t="inlineStr"/>
+      <c r="C236" t="n">
         <v>22</v>
       </c>
-      <c r="C236" t="n">
+      <c r="D236" t="n">
         <v>18</v>
       </c>
-      <c r="D236" t="n">
+      <c r="E236" t="n">
         <v>47</v>
       </c>
-      <c r="E236" t="n">
+      <c r="F236" t="n">
         <v>36</v>
       </c>
-      <c r="F236" t="n">
+      <c r="G236" t="n">
         <v>32</v>
       </c>
     </row>
@@ -5639,19 +5879,20 @@
           <t>SIPCHEM</t>
         </is>
       </c>
-      <c r="B237" t="n">
+      <c r="B237" s="1" t="inlineStr"/>
+      <c r="C237" t="n">
         <v>18</v>
       </c>
-      <c r="C237" t="n">
+      <c r="D237" t="n">
         <v>27</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>36</v>
       </c>
-      <c r="E237" t="n">
+      <c r="F237" t="n">
         <v>24</v>
       </c>
-      <c r="F237" t="n">
+      <c r="G237" t="n">
         <v>26</v>
       </c>
     </row>
@@ -5661,19 +5902,20 @@
           <t>SISCO HOLDING</t>
         </is>
       </c>
-      <c r="B238" t="n">
+      <c r="B238" s="1" t="inlineStr"/>
+      <c r="C238" t="n">
         <v>84</v>
       </c>
-      <c r="C238" t="n">
+      <c r="D238" t="n">
         <v>89</v>
       </c>
-      <c r="D238" t="n">
+      <c r="E238" t="n">
         <v>92</v>
       </c>
-      <c r="E238" t="n">
+      <c r="F238" t="n">
         <v>51</v>
       </c>
-      <c r="F238" t="n">
+      <c r="G238" t="n">
         <v>74</v>
       </c>
     </row>
@@ -5683,19 +5925,20 @@
           <t>SMASCO</t>
         </is>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" s="1" t="inlineStr"/>
+      <c r="C239" t="n">
         <v>26</v>
       </c>
-      <c r="C239" t="n">
+      <c r="D239" t="n">
         <v>49</v>
       </c>
-      <c r="D239" t="n">
+      <c r="E239" t="n">
         <v>39</v>
       </c>
-      <c r="E239" t="n">
+      <c r="F239" t="n">
         <v>40</v>
       </c>
-      <c r="F239" t="n">
+      <c r="G239" t="n">
         <v>39</v>
       </c>
     </row>
@@ -5705,19 +5948,20 @@
           <t>SMC HEALTHCARE</t>
         </is>
       </c>
-      <c r="B240" t="n">
+      <c r="B240" s="1" t="inlineStr"/>
+      <c r="C240" t="n">
         <v>54</v>
       </c>
-      <c r="C240" t="n">
+      <c r="D240" t="n">
         <v>43</v>
       </c>
-      <c r="D240" t="n">
+      <c r="E240" t="n">
         <v>24</v>
       </c>
-      <c r="E240" t="n">
+      <c r="F240" t="n">
         <v>87</v>
       </c>
-      <c r="F240" t="n">
+      <c r="G240" t="n">
         <v>59</v>
       </c>
     </row>
@@ -5727,19 +5971,20 @@
           <t>SNB</t>
         </is>
       </c>
-      <c r="B241" t="n">
+      <c r="B241" s="1" t="inlineStr"/>
+      <c r="C241" t="n">
         <v>95</v>
       </c>
-      <c r="C241" t="n">
+      <c r="D241" t="n">
         <v>94</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>90</v>
       </c>
-      <c r="E241" t="n">
+      <c r="F241" t="n">
         <v>88</v>
       </c>
-      <c r="F241" t="n">
+      <c r="G241" t="n">
         <v>91</v>
       </c>
     </row>
@@ -5749,19 +5994,20 @@
           <t>SOLIDARITY</t>
         </is>
       </c>
-      <c r="B242" t="n">
+      <c r="B242" s="1" t="inlineStr"/>
+      <c r="C242" t="n">
         <v>87</v>
       </c>
-      <c r="C242" t="n">
+      <c r="D242" t="n">
         <v>83</v>
       </c>
-      <c r="D242" t="n">
+      <c r="E242" t="n">
         <v>79</v>
       </c>
-      <c r="E242" t="n">
+      <c r="F242" t="n">
         <v>71</v>
       </c>
-      <c r="F242" t="n">
+      <c r="G242" t="n">
         <v>79</v>
       </c>
     </row>
@@ -5771,19 +6017,20 @@
           <t>SOLUTIONS</t>
         </is>
       </c>
-      <c r="B243" t="n">
+      <c r="B243" s="1" t="inlineStr"/>
+      <c r="C243" t="n">
         <v>50</v>
       </c>
-      <c r="C243" t="n">
+      <c r="D243" t="n">
         <v>27</v>
       </c>
-      <c r="D243" t="n">
+      <c r="E243" t="n">
         <v>42</v>
       </c>
-      <c r="E243" t="n">
+      <c r="F243" t="n">
         <v>49</v>
       </c>
-      <c r="F243" t="n">
+      <c r="G243" t="n">
         <v>44</v>
       </c>
     </row>
@@ -5793,21 +6040,22 @@
           <t>SPCC</t>
         </is>
       </c>
-      <c r="B244" t="n">
+      <c r="B244" s="1" t="inlineStr"/>
+      <c r="C244" t="n">
         <v>21</v>
       </c>
-      <c r="C244" t="n">
+      <c r="D244" t="n">
         <v>22</v>
       </c>
-      <c r="D244" t="n">
+      <c r="E244" t="n">
         <v>13</v>
-      </c>
-      <c r="E244" t="n">
-        <v>20</v>
       </c>
       <c r="F244" t="n">
         <v>20</v>
       </c>
+      <c r="G244" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -5815,19 +6063,20 @@
           <t>SPIMACO</t>
         </is>
       </c>
-      <c r="B245" t="n">
+      <c r="B245" s="1" t="inlineStr"/>
+      <c r="C245" t="n">
         <v>68</v>
       </c>
-      <c r="C245" t="n">
+      <c r="D245" t="n">
         <v>74</v>
       </c>
-      <c r="D245" t="n">
+      <c r="E245" t="n">
         <v>91</v>
       </c>
-      <c r="E245" t="n">
+      <c r="F245" t="n">
         <v>68</v>
       </c>
-      <c r="F245" t="n">
+      <c r="G245" t="n">
         <v>74</v>
       </c>
     </row>
@@ -5837,19 +6086,20 @@
           <t>SPM</t>
         </is>
       </c>
-      <c r="B246" t="n">
+      <c r="B246" s="1" t="inlineStr"/>
+      <c r="C246" t="n">
         <v>70</v>
       </c>
-      <c r="C246" t="n">
+      <c r="D246" t="n">
         <v>67</v>
       </c>
-      <c r="D246" t="n">
+      <c r="E246" t="n">
         <v>49</v>
       </c>
-      <c r="E246" t="n">
+      <c r="F246" t="n">
         <v>92</v>
       </c>
-      <c r="F246" t="n">
+      <c r="G246" t="n">
         <v>74</v>
       </c>
     </row>
@@ -5859,19 +6109,20 @@
           <t>SPORT CLUBS</t>
         </is>
       </c>
-      <c r="B247" t="n">
+      <c r="B247" s="1" t="inlineStr"/>
+      <c r="C247" t="n">
         <v>77</v>
       </c>
-      <c r="C247" t="n">
+      <c r="D247" t="n">
         <v>68</v>
       </c>
-      <c r="D247" t="n">
+      <c r="E247" t="n">
         <v>57</v>
       </c>
-      <c r="E247" t="n">
+      <c r="F247" t="n">
         <v>12</v>
       </c>
-      <c r="F247" t="n">
+      <c r="G247" t="n">
         <v>46</v>
       </c>
     </row>
@@ -5881,19 +6132,20 @@
           <t>SPPC</t>
         </is>
       </c>
-      <c r="B248" t="n">
+      <c r="B248" s="1" t="inlineStr"/>
+      <c r="C248" t="n">
         <v>24</v>
       </c>
-      <c r="C248" t="n">
+      <c r="D248" t="n">
         <v>32</v>
       </c>
-      <c r="D248" t="n">
+      <c r="E248" t="n">
         <v>17</v>
       </c>
-      <c r="E248" t="n">
+      <c r="F248" t="n">
         <v>3</v>
       </c>
-      <c r="F248" t="n">
+      <c r="G248" t="n">
         <v>16</v>
       </c>
     </row>
@@ -5903,19 +6155,20 @@
           <t>SRMG</t>
         </is>
       </c>
-      <c r="B249" t="n">
+      <c r="B249" s="1" t="inlineStr"/>
+      <c r="C249" t="n">
         <v>8</v>
       </c>
-      <c r="C249" t="n">
+      <c r="D249" t="n">
         <v>40</v>
       </c>
-      <c r="D249" t="n">
+      <c r="E249" t="n">
         <v>70</v>
       </c>
-      <c r="E249" t="n">
+      <c r="F249" t="n">
         <v>14</v>
       </c>
-      <c r="F249" t="n">
+      <c r="G249" t="n">
         <v>30</v>
       </c>
     </row>
@@ -5925,19 +6178,20 @@
           <t>SSP</t>
         </is>
       </c>
-      <c r="B250" t="n">
-        <v>16</v>
-      </c>
+      <c r="B250" s="1" t="inlineStr"/>
       <c r="C250" t="n">
         <v>16</v>
       </c>
       <c r="D250" t="n">
+        <v>16</v>
+      </c>
+      <c r="E250" t="n">
         <v>14</v>
       </c>
-      <c r="E250" t="n">
+      <c r="F250" t="n">
         <v>19</v>
       </c>
-      <c r="F250" t="n">
+      <c r="G250" t="n">
         <v>17</v>
       </c>
     </row>
@@ -5947,19 +6201,20 @@
           <t>STC</t>
         </is>
       </c>
-      <c r="B251" t="n">
+      <c r="B251" s="1" t="inlineStr"/>
+      <c r="C251" t="n">
         <v>93</v>
       </c>
-      <c r="C251" t="n">
+      <c r="D251" t="n">
         <v>76</v>
       </c>
-      <c r="D251" t="n">
+      <c r="E251" t="n">
         <v>73</v>
       </c>
-      <c r="E251" t="n">
+      <c r="F251" t="n">
         <v>78</v>
       </c>
-      <c r="F251" t="n">
+      <c r="G251" t="n">
         <v>80</v>
       </c>
     </row>
@@ -5969,19 +6224,20 @@
           <t>SULAIMAN ALHABIB</t>
         </is>
       </c>
-      <c r="B252" t="n">
+      <c r="B252" s="1" t="inlineStr"/>
+      <c r="C252" t="n">
         <v>71</v>
       </c>
-      <c r="C252" t="n">
+      <c r="D252" t="n">
         <v>73</v>
       </c>
-      <c r="D252" t="n">
+      <c r="E252" t="n">
         <v>82</v>
       </c>
-      <c r="E252" t="n">
+      <c r="F252" t="n">
         <v>87</v>
       </c>
-      <c r="F252" t="n">
+      <c r="G252" t="n">
         <v>80</v>
       </c>
     </row>
@@ -5991,19 +6247,20 @@
           <t>SUMOU</t>
         </is>
       </c>
-      <c r="B253" t="n">
+      <c r="B253" s="1" t="inlineStr"/>
+      <c r="C253" t="n">
         <v>67</v>
       </c>
-      <c r="C253" t="n">
+      <c r="D253" t="n">
         <v>25</v>
       </c>
-      <c r="D253" t="n">
+      <c r="E253" t="n">
         <v>43</v>
       </c>
-      <c r="E253" t="n">
+      <c r="F253" t="n">
         <v>33</v>
       </c>
-      <c r="F253" t="n">
+      <c r="G253" t="n">
         <v>41</v>
       </c>
     </row>
@@ -6013,19 +6270,20 @@
           <t>SVCP</t>
         </is>
       </c>
-      <c r="B254" t="n">
+      <c r="B254" s="1" t="inlineStr"/>
+      <c r="C254" t="n">
         <v>15</v>
       </c>
-      <c r="C254" t="n">
+      <c r="D254" t="n">
         <v>14</v>
       </c>
-      <c r="D254" t="n">
+      <c r="E254" t="n">
         <v>22</v>
       </c>
-      <c r="E254" t="n">
+      <c r="F254" t="n">
         <v>16</v>
       </c>
-      <c r="F254" t="n">
+      <c r="G254" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6035,19 +6293,20 @@
           <t>Sahara</t>
         </is>
       </c>
-      <c r="B255" t="n">
+      <c r="B255" s="1" t="inlineStr"/>
+      <c r="C255" t="n">
         <v>89</v>
       </c>
-      <c r="C255" t="n">
+      <c r="D255" t="n">
         <v>91</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>84</v>
       </c>
-      <c r="E255" t="n">
+      <c r="F255" t="n">
         <v>79</v>
       </c>
-      <c r="F255" t="n">
+      <c r="G255" t="n">
         <v>85</v>
       </c>
     </row>
@@ -6057,19 +6316,20 @@
           <t>TADAWUL GROUP</t>
         </is>
       </c>
-      <c r="B256" t="n">
+      <c r="B256" s="1" t="inlineStr"/>
+      <c r="C256" t="n">
         <v>36</v>
       </c>
-      <c r="C256" t="n">
+      <c r="D256" t="n">
         <v>40</v>
       </c>
-      <c r="D256" t="n">
+      <c r="E256" t="n">
         <v>66</v>
       </c>
-      <c r="E256" t="n">
+      <c r="F256" t="n">
         <v>57</v>
       </c>
-      <c r="F256" t="n">
+      <c r="G256" t="n">
         <v>52</v>
       </c>
     </row>
@@ -6079,19 +6339,20 @@
           <t>TADCO</t>
         </is>
       </c>
-      <c r="B257" t="n">
+      <c r="B257" s="1" t="inlineStr"/>
+      <c r="C257" t="n">
         <v>10</v>
       </c>
-      <c r="C257" t="n">
+      <c r="D257" t="n">
         <v>11</v>
       </c>
-      <c r="D257" t="n">
+      <c r="E257" t="n">
         <v>24</v>
       </c>
-      <c r="E257" t="n">
+      <c r="F257" t="n">
         <v>21</v>
       </c>
-      <c r="F257" t="n">
+      <c r="G257" t="n">
         <v>18</v>
       </c>
     </row>
@@ -6101,19 +6362,20 @@
           <t>TAIBA</t>
         </is>
       </c>
-      <c r="B258" t="n">
+      <c r="B258" s="1" t="inlineStr"/>
+      <c r="C258" t="n">
         <v>72</v>
       </c>
-      <c r="C258" t="n">
+      <c r="D258" t="n">
         <v>22</v>
       </c>
-      <c r="D258" t="n">
+      <c r="E258" t="n">
         <v>54</v>
       </c>
-      <c r="E258" t="n">
+      <c r="F258" t="n">
         <v>55</v>
       </c>
-      <c r="F258" t="n">
+      <c r="G258" t="n">
         <v>52</v>
       </c>
     </row>
@@ -6123,19 +6385,20 @@
           <t>TAKWEEN</t>
         </is>
       </c>
-      <c r="B259" t="n">
+      <c r="B259" s="1" t="inlineStr"/>
+      <c r="C259" t="n">
         <v>12</v>
       </c>
-      <c r="C259" t="n">
+      <c r="D259" t="n">
         <v>18</v>
       </c>
-      <c r="D259" t="n">
+      <c r="E259" t="n">
         <v>27</v>
       </c>
-      <c r="E259" t="n">
+      <c r="F259" t="n">
         <v>24</v>
       </c>
-      <c r="F259" t="n">
+      <c r="G259" t="n">
         <v>21</v>
       </c>
     </row>
@@ -6145,19 +6408,20 @@
           <t>TALCO</t>
         </is>
       </c>
-      <c r="B260" t="n">
+      <c r="B260" s="1" t="inlineStr"/>
+      <c r="C260" t="n">
         <v>19</v>
       </c>
-      <c r="C260" t="n">
+      <c r="D260" t="n">
         <v>29</v>
       </c>
-      <c r="D260" t="n">
+      <c r="E260" t="n">
         <v>31</v>
       </c>
-      <c r="E260" t="n">
+      <c r="F260" t="n">
         <v>40</v>
       </c>
-      <c r="F260" t="n">
+      <c r="G260" t="n">
         <v>32</v>
       </c>
     </row>
@@ -6167,21 +6431,22 @@
           <t>TALEEM REIT</t>
         </is>
       </c>
-      <c r="B261" t="n">
+      <c r="B261" s="1" t="inlineStr"/>
+      <c r="C261" t="n">
         <v>73</v>
       </c>
-      <c r="C261" t="n">
+      <c r="D261" t="n">
         <v>79</v>
       </c>
-      <c r="D261" t="n">
+      <c r="E261" t="n">
         <v>84</v>
-      </c>
-      <c r="E261" t="n">
-        <v>80</v>
       </c>
       <c r="F261" t="n">
         <v>80</v>
       </c>
+      <c r="G261" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -6189,19 +6454,20 @@
           <t>TAMKEEN</t>
         </is>
       </c>
-      <c r="B262" t="n">
+      <c r="B262" s="1" t="inlineStr"/>
+      <c r="C262" t="n">
         <v>37</v>
       </c>
-      <c r="C262" t="n">
+      <c r="D262" t="n">
         <v>88</v>
       </c>
-      <c r="D262" t="n">
+      <c r="E262" t="n">
         <v>67</v>
       </c>
-      <c r="E262" t="n">
+      <c r="F262" t="n">
         <v>29</v>
       </c>
-      <c r="F262" t="n">
+      <c r="G262" t="n">
         <v>50</v>
       </c>
     </row>
@@ -6211,19 +6477,20 @@
           <t>TANMIAH</t>
         </is>
       </c>
-      <c r="B263" t="n">
+      <c r="B263" s="1" t="inlineStr"/>
+      <c r="C263" t="n">
         <v>5</v>
       </c>
-      <c r="C263" t="n">
+      <c r="D263" t="n">
         <v>2</v>
       </c>
-      <c r="D263" t="n">
+      <c r="E263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" t="n">
+      <c r="F263" t="n">
         <v>11</v>
       </c>
-      <c r="F263" t="n">
+      <c r="G263" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6233,19 +6500,20 @@
           <t>TAPRCO</t>
         </is>
       </c>
-      <c r="B264" t="n">
+      <c r="B264" s="1" t="inlineStr"/>
+      <c r="C264" t="n">
         <v>25</v>
       </c>
-      <c r="C264" t="n">
+      <c r="D264" t="n">
         <v>8</v>
       </c>
-      <c r="D264" t="n">
+      <c r="E264" t="n">
         <v>5</v>
       </c>
-      <c r="E264" t="n">
+      <c r="F264" t="n">
         <v>2</v>
       </c>
-      <c r="F264" t="n">
+      <c r="G264" t="n">
         <v>9</v>
       </c>
     </row>
@@ -6255,19 +6523,20 @@
           <t>TASHEEL</t>
         </is>
       </c>
-      <c r="B265" t="n">
+      <c r="B265" s="1" t="inlineStr"/>
+      <c r="C265" t="n">
         <v>78</v>
       </c>
-      <c r="C265" t="n">
+      <c r="D265" t="n">
         <v>79</v>
       </c>
-      <c r="D265" t="n">
+      <c r="E265" t="n">
         <v>63</v>
       </c>
-      <c r="E265" t="n">
+      <c r="F265" t="n">
         <v>89</v>
       </c>
-      <c r="F265" t="n">
+      <c r="G265" t="n">
         <v>80</v>
       </c>
     </row>
@@ -6277,19 +6546,20 @@
           <t>TASNEE</t>
         </is>
       </c>
-      <c r="B266" t="n">
+      <c r="B266" s="1" t="inlineStr"/>
+      <c r="C266" t="n">
         <v>77</v>
       </c>
-      <c r="C266" t="n">
+      <c r="D266" t="n">
         <v>93</v>
       </c>
-      <c r="D266" t="n">
+      <c r="E266" t="n">
         <v>88</v>
       </c>
-      <c r="E266" t="n">
+      <c r="F266" t="n">
         <v>37</v>
       </c>
-      <c r="F266" t="n">
+      <c r="G266" t="n">
         <v>67</v>
       </c>
     </row>
@@ -6299,19 +6569,20 @@
           <t>TAWUNIYA</t>
         </is>
       </c>
-      <c r="B267" t="n">
+      <c r="B267" s="1" t="inlineStr"/>
+      <c r="C267" t="n">
         <v>61</v>
       </c>
-      <c r="C267" t="n">
+      <c r="D267" t="n">
         <v>51</v>
       </c>
-      <c r="D267" t="n">
+      <c r="E267" t="n">
         <v>28</v>
       </c>
-      <c r="E267" t="n">
+      <c r="F267" t="n">
         <v>74</v>
       </c>
-      <c r="F267" t="n">
+      <c r="G267" t="n">
         <v>58</v>
       </c>
     </row>
@@ -6321,19 +6592,20 @@
           <t>TCC</t>
         </is>
       </c>
-      <c r="B268" t="n">
+      <c r="B268" s="1" t="inlineStr"/>
+      <c r="C268" t="n">
         <v>45</v>
       </c>
-      <c r="C268" t="n">
+      <c r="D268" t="n">
         <v>18</v>
       </c>
-      <c r="D268" t="n">
+      <c r="E268" t="n">
         <v>35</v>
       </c>
-      <c r="E268" t="n">
+      <c r="F268" t="n">
         <v>45</v>
       </c>
-      <c r="F268" t="n">
+      <c r="G268" t="n">
         <v>38</v>
       </c>
     </row>
@@ -6343,19 +6615,20 @@
           <t>TECO</t>
         </is>
       </c>
-      <c r="B269" t="n">
+      <c r="B269" s="1" t="inlineStr"/>
+      <c r="C269" t="n">
         <v>22</v>
       </c>
-      <c r="C269" t="n">
+      <c r="D269" t="n">
         <v>30</v>
       </c>
-      <c r="D269" t="n">
+      <c r="E269" t="n">
         <v>20</v>
       </c>
-      <c r="E269" t="n">
+      <c r="F269" t="n">
         <v>1</v>
       </c>
-      <c r="F269" t="n">
+      <c r="G269" t="n">
         <v>15</v>
       </c>
     </row>
@@ -6365,19 +6638,20 @@
           <t>THEEB</t>
         </is>
       </c>
-      <c r="B270" t="n">
+      <c r="B270" s="1" t="inlineStr"/>
+      <c r="C270" t="n">
         <v>47</v>
       </c>
-      <c r="C270" t="n">
+      <c r="D270" t="n">
         <v>51</v>
       </c>
-      <c r="D270" t="n">
+      <c r="E270" t="n">
         <v>49</v>
       </c>
-      <c r="E270" t="n">
+      <c r="F270" t="n">
         <v>62</v>
       </c>
-      <c r="F270" t="n">
+      <c r="G270" t="n">
         <v>55</v>
       </c>
     </row>
@@ -6387,19 +6661,20 @@
           <t>THIMAR</t>
         </is>
       </c>
-      <c r="B271" t="n">
+      <c r="B271" s="1" t="inlineStr"/>
+      <c r="C271" t="n">
         <v>72</v>
       </c>
-      <c r="C271" t="n">
+      <c r="D271" t="n">
         <v>70</v>
       </c>
-      <c r="D271" t="n">
+      <c r="E271" t="n">
         <v>87</v>
       </c>
-      <c r="E271" t="n">
+      <c r="F271" t="n">
         <v>19</v>
       </c>
-      <c r="F271" t="n">
+      <c r="G271" t="n">
         <v>54</v>
       </c>
     </row>
@@ -6409,19 +6684,20 @@
           <t>UACC</t>
         </is>
       </c>
-      <c r="B272" t="n">
+      <c r="B272" s="1" t="inlineStr"/>
+      <c r="C272" t="n">
         <v>33</v>
       </c>
-      <c r="C272" t="n">
+      <c r="D272" t="n">
         <v>16</v>
       </c>
-      <c r="D272" t="n">
+      <c r="E272" t="n">
         <v>12</v>
       </c>
-      <c r="E272" t="n">
+      <c r="F272" t="n">
         <v>25</v>
       </c>
-      <c r="F272" t="n">
+      <c r="G272" t="n">
         <v>23</v>
       </c>
     </row>
@@ -6431,19 +6707,20 @@
           <t>UCA</t>
         </is>
       </c>
-      <c r="B273" t="n">
+      <c r="B273" s="1" t="inlineStr"/>
+      <c r="C273" t="n">
         <v>1</v>
-      </c>
-      <c r="C273" t="n">
-        <v>0</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
       </c>
       <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
         <v>7</v>
       </c>
-      <c r="F273" t="n">
+      <c r="G273" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6453,19 +6730,20 @@
           <t>UCIC</t>
         </is>
       </c>
-      <c r="B274" t="n">
+      <c r="B274" s="1" t="inlineStr"/>
+      <c r="C274" t="n">
         <v>8</v>
       </c>
-      <c r="C274" t="n">
+      <c r="D274" t="n">
         <v>3</v>
       </c>
-      <c r="D274" t="n">
+      <c r="E274" t="n">
         <v>5</v>
       </c>
-      <c r="E274" t="n">
+      <c r="F274" t="n">
         <v>53</v>
       </c>
-      <c r="F274" t="n">
+      <c r="G274" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6475,15 +6753,16 @@
           <t>WAFA INSURANCE</t>
         </is>
       </c>
-      <c r="B275" t="n">
+      <c r="B275" s="1" t="inlineStr"/>
+      <c r="C275" t="n">
         <v>87</v>
       </c>
-      <c r="C275" t="n">
+      <c r="D275" t="n">
         <v>83</v>
       </c>
-      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr"/>
-      <c r="F275" t="n">
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="n">
         <v>34</v>
       </c>
     </row>
@@ -6493,15 +6772,16 @@
           <t>WAFA Insurance</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr"/>
+      <c r="B276" s="1" t="inlineStr"/>
       <c r="C276" t="inlineStr"/>
-      <c r="D276" t="n">
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="n">
         <v>79</v>
       </c>
-      <c r="E276" t="n">
+      <c r="F276" t="n">
         <v>71</v>
       </c>
-      <c r="F276" t="n">
+      <c r="G276" t="n">
         <v>45</v>
       </c>
     </row>
@@ -6511,19 +6791,20 @@
           <t>WAFRAH</t>
         </is>
       </c>
-      <c r="B277" t="n">
+      <c r="B277" s="1" t="inlineStr"/>
+      <c r="C277" t="n">
         <v>12</v>
       </c>
-      <c r="C277" t="n">
+      <c r="D277" t="n">
         <v>13</v>
       </c>
-      <c r="D277" t="n">
+      <c r="E277" t="n">
         <v>19</v>
       </c>
-      <c r="E277" t="n">
+      <c r="F277" t="n">
         <v>18</v>
       </c>
-      <c r="F277" t="n">
+      <c r="G277" t="n">
         <v>16</v>
       </c>
     </row>
@@ -6533,19 +6814,20 @@
           <t>WALAA</t>
         </is>
       </c>
-      <c r="B278" t="n">
+      <c r="B278" s="1" t="inlineStr"/>
+      <c r="C278" t="n">
         <v>23</v>
       </c>
-      <c r="C278" t="n">
+      <c r="D278" t="n">
         <v>12</v>
       </c>
-      <c r="D278" t="n">
+      <c r="E278" t="n">
         <v>5</v>
       </c>
-      <c r="E278" t="n">
+      <c r="F278" t="n">
         <v>84</v>
       </c>
-      <c r="F278" t="n">
+      <c r="G278" t="n">
         <v>42</v>
       </c>
     </row>
@@ -6555,19 +6837,20 @@
           <t>WATANIYA</t>
         </is>
       </c>
-      <c r="B279" t="n">
+      <c r="B279" s="1" t="inlineStr"/>
+      <c r="C279" t="n">
         <v>11</v>
       </c>
-      <c r="C279" t="n">
+      <c r="D279" t="n">
         <v>6</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>15</v>
       </c>
-      <c r="E279" t="n">
+      <c r="F279" t="n">
         <v>31</v>
       </c>
-      <c r="F279" t="n">
+      <c r="G279" t="n">
         <v>19</v>
       </c>
     </row>
@@ -6577,19 +6860,20 @@
           <t>Weqaya Takaful</t>
         </is>
       </c>
-      <c r="B280" t="n">
+      <c r="B280" s="1" t="inlineStr"/>
+      <c r="C280" t="n">
         <v>87</v>
       </c>
-      <c r="C280" t="n">
+      <c r="D280" t="n">
         <v>83</v>
       </c>
-      <c r="D280" t="n">
+      <c r="E280" t="n">
         <v>79</v>
       </c>
-      <c r="E280" t="n">
+      <c r="F280" t="n">
         <v>71</v>
       </c>
-      <c r="F280" t="n">
+      <c r="G280" t="n">
         <v>79</v>
       </c>
     </row>
@@ -6599,19 +6883,20 @@
           <t>YANSAB</t>
         </is>
       </c>
-      <c r="B281" t="n">
+      <c r="B281" s="1" t="inlineStr"/>
+      <c r="C281" t="n">
         <v>53</v>
       </c>
-      <c r="C281" t="n">
+      <c r="D281" t="n">
         <v>61</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>87</v>
       </c>
-      <c r="E281" t="n">
+      <c r="F281" t="n">
         <v>46</v>
       </c>
-      <c r="F281" t="n">
+      <c r="G281" t="n">
         <v>59</v>
       </c>
     </row>
@@ -6621,19 +6906,20 @@
           <t>YC</t>
         </is>
       </c>
-      <c r="B282" t="n">
+      <c r="B282" s="1" t="inlineStr"/>
+      <c r="C282" t="n">
         <v>31</v>
       </c>
-      <c r="C282" t="n">
+      <c r="D282" t="n">
         <v>9</v>
-      </c>
-      <c r="D282" t="n">
-        <v>4</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
       </c>
       <c r="F282" t="n">
+        <v>4</v>
+      </c>
+      <c r="G282" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6643,19 +6929,20 @@
           <t>YCC</t>
         </is>
       </c>
-      <c r="B283" t="n">
+      <c r="B283" s="1" t="inlineStr"/>
+      <c r="C283" t="n">
         <v>21</v>
       </c>
-      <c r="C283" t="n">
+      <c r="D283" t="n">
         <v>23</v>
       </c>
-      <c r="D283" t="n">
+      <c r="E283" t="n">
         <v>20</v>
       </c>
-      <c r="E283" t="n">
+      <c r="F283" t="n">
         <v>66</v>
       </c>
-      <c r="F283" t="n">
+      <c r="G283" t="n">
         <v>40</v>
       </c>
     </row>
@@ -6665,21 +6952,22 @@
           <t>ZAIN KSA</t>
         </is>
       </c>
-      <c r="B284" t="n">
+      <c r="B284" s="1" t="inlineStr"/>
+      <c r="C284" t="n">
         <v>92</v>
       </c>
-      <c r="C284" t="n">
+      <c r="D284" t="n">
         <v>87</v>
       </c>
-      <c r="D284" t="n">
+      <c r="E284" t="n">
         <v>73</v>
-      </c>
-      <c r="E284" t="n">
-        <v>85</v>
       </c>
       <c r="F284" t="n">
         <v>85</v>
       </c>
+      <c r="G284" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -6687,19 +6975,20 @@
           <t>ZOUJAJ</t>
         </is>
       </c>
-      <c r="B285" t="n">
+      <c r="B285" s="1" t="inlineStr"/>
+      <c r="C285" t="n">
         <v>28</v>
       </c>
-      <c r="C285" t="n">
+      <c r="D285" t="n">
         <v>35</v>
       </c>
-      <c r="D285" t="n">
+      <c r="E285" t="n">
         <v>34</v>
       </c>
-      <c r="E285" t="n">
+      <c r="F285" t="n">
         <v>37</v>
       </c>
-      <c r="F285" t="n">
+      <c r="G285" t="n">
         <v>35</v>
       </c>
     </row>

--- a/saudiexchange_rs_analysis.xlsx
+++ b/saudiexchange_rs_analysis.xlsx
@@ -484,13 +484,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +507,13 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +524,19 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" t="n">
         <v>97</v>
       </c>
       <c r="E4" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G4" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +547,19 @@
       </c>
       <c r="B5" s="1" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
         <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G5" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -593,7 +593,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
@@ -619,16 +619,16 @@
         <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
         <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -639,19 +639,19 @@
       </c>
       <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="n">
         <v>93</v>
       </c>
       <c r="E9" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -662,7 +662,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="n">
         <v>37</v>
@@ -685,19 +685,19 @@
       </c>
       <c r="B11" s="1" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -708,19 +708,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -734,16 +734,16 @@
         <v>69</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
         <v>54</v>
       </c>
       <c r="F13" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -757,13 +757,13 @@
         <v>87</v>
       </c>
       <c r="D14" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="n">
         <v>79</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="B15" s="1" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -806,13 +806,13 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -823,7 +823,7 @@
       </c>
       <c r="B17" s="1" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" t="n">
         <v>19</v>
@@ -832,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -846,13 +846,13 @@
       </c>
       <c r="B18" s="1" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
         <v>48</v>
       </c>
       <c r="E18" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" t="n">
         <v>99</v>
@@ -875,13 +875,13 @@
         <v>56</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
@@ -895,16 +895,16 @@
         <v>90</v>
       </c>
       <c r="D20" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -921,13 +921,13 @@
         <v>99</v>
       </c>
       <c r="E21" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21" t="n">
         <v>97</v>
       </c>
       <c r="G21" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -938,19 +938,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F22" t="n">
         <v>79</v>
       </c>
       <c r="G22" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -961,19 +961,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -984,16 +984,16 @@
       </c>
       <c r="B24" s="1" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
         <v>89</v>
       </c>
       <c r="F24" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" t="n">
         <v>87</v>
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>
@@ -1030,19 +1030,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="B27" s="1" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" t="n">
         <v>44</v>
       </c>
       <c r="E27" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G27" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -1079,16 +1079,16 @@
         <v>83</v>
       </c>
       <c r="D28" t="n">
+        <v>80</v>
+      </c>
+      <c r="E28" t="n">
+        <v>75</v>
+      </c>
+      <c r="F28" t="n">
         <v>78</v>
       </c>
-      <c r="E28" t="n">
-        <v>72</v>
-      </c>
-      <c r="F28" t="n">
-        <v>75</v>
-      </c>
       <c r="G28" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -1102,16 +1102,16 @@
         <v>75</v>
       </c>
       <c r="D29" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" t="n">
         <v>66</v>
       </c>
       <c r="F29" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1125,13 +1125,13 @@
         <v>87</v>
       </c>
       <c r="D30" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" t="n">
         <v>79</v>
@@ -1151,13 +1151,13 @@
         <v>95</v>
       </c>
       <c r="E31" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32">
@@ -1168,19 +1168,19 @@
       </c>
       <c r="B32" s="1" t="inlineStr"/>
       <c r="C32" t="n">
+        <v>50</v>
+      </c>
+      <c r="D32" t="n">
+        <v>56</v>
+      </c>
+      <c r="E32" t="n">
+        <v>46</v>
+      </c>
+      <c r="F32" t="n">
         <v>48</v>
       </c>
-      <c r="D32" t="n">
-        <v>54</v>
-      </c>
-      <c r="E32" t="n">
-        <v>45</v>
-      </c>
-      <c r="F32" t="n">
-        <v>45</v>
-      </c>
       <c r="G32" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -1191,16 +1191,16 @@
       </c>
       <c r="B33" s="1" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" t="n">
         <v>67</v>
       </c>
       <c r="F33" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" t="n">
         <v>55</v>
@@ -1217,16 +1217,16 @@
         <v>43</v>
       </c>
       <c r="D34" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G34" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -1237,19 +1237,19 @@
       </c>
       <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G35" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
@@ -1263,16 +1263,16 @@
         <v>23</v>
       </c>
       <c r="D36" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F36" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G36" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -1286,13 +1286,13 @@
         <v>87</v>
       </c>
       <c r="D37" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>79</v>
@@ -1306,19 +1306,19 @@
       </c>
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" t="n">
         <v>33</v>
       </c>
       <c r="E38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F38" t="n">
         <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
@@ -1329,19 +1329,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D39" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E39" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F39" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G39" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
@@ -1352,19 +1352,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E40" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" t="n">
+        <v>44</v>
+      </c>
+      <c r="G40" t="n">
         <v>43</v>
-      </c>
-      <c r="G40" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -1375,19 +1375,19 @@
       </c>
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D41" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E41" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F41" t="n">
+        <v>54</v>
+      </c>
+      <c r="G41" t="n">
         <v>67</v>
-      </c>
-      <c r="G41" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -1401,16 +1401,16 @@
         <v>98</v>
       </c>
       <c r="D42" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F42" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G42" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
@@ -1424,16 +1424,16 @@
         <v>96</v>
       </c>
       <c r="D43" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" t="n">
         <v>93</v>
       </c>
       <c r="F43" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
@@ -1444,19 +1444,19 @@
       </c>
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G44" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>38</v>
@@ -1476,10 +1476,10 @@
         <v>55</v>
       </c>
       <c r="F45" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G45" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F46" t="n">
         <v>83</v>
       </c>
       <c r="G46" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1539,16 +1539,16 @@
         <v>14</v>
       </c>
       <c r="D48" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -1559,16 +1559,16 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E49" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F49" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G49" t="n">
         <v>46</v>
@@ -1582,19 +1582,19 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D50" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E50" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G50" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -1605,19 +1605,19 @@
       </c>
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D51" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G51" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
@@ -1637,7 +1637,7 @@
         <v>99</v>
       </c>
       <c r="F52" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>98</v>
@@ -1660,10 +1660,10 @@
         <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -1674,19 +1674,19 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D54" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E54" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F54" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G54" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="E55" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F55" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G55" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -1720,16 +1720,16 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D56" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E56" t="n">
         <v>94</v>
       </c>
       <c r="F56" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G56" t="n">
         <v>59</v>
@@ -1746,16 +1746,16 @@
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -1775,7 +1775,7 @@
         <v>92</v>
       </c>
       <c r="F58" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G58" t="n">
         <v>87</v>
@@ -1798,10 +1798,10 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G59" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -1812,19 +1812,19 @@
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D60" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G60" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61">
@@ -1835,19 +1835,19 @@
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D61" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" t="n">
         <v>96</v>
       </c>
       <c r="F61" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G61" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62">
@@ -1858,19 +1858,19 @@
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D62" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E62" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F62" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G62" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63">
@@ -1887,10 +1887,10 @@
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G63" t="n">
         <v>23</v>
@@ -1904,13 +1904,13 @@
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -1927,19 +1927,19 @@
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E65" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F65" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G65" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
@@ -1950,19 +1950,19 @@
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E66" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F66" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G66" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67">
@@ -1973,19 +1973,19 @@
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
+        <v>39</v>
+      </c>
+      <c r="D67" t="n">
+        <v>37</v>
+      </c>
+      <c r="E67" t="n">
         <v>43</v>
       </c>
-      <c r="D67" t="n">
-        <v>33</v>
-      </c>
-      <c r="E67" t="n">
-        <v>39</v>
-      </c>
       <c r="F67" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G67" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68">
@@ -1996,19 +1996,19 @@
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E68" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F68" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G68" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -2022,13 +2022,13 @@
         <v>87</v>
       </c>
       <c r="D69" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E69" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F69" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G69" t="n">
         <v>79</v>
@@ -2042,19 +2042,19 @@
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D70" t="n">
         <v>63</v>
       </c>
       <c r="E70" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F70" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G70" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71">
@@ -2065,19 +2065,19 @@
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E71" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F71" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G71" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
@@ -2088,19 +2088,19 @@
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D72" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E72" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F72" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G72" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73">
@@ -2111,19 +2111,19 @@
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E73" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F73" t="n">
+        <v>75</v>
+      </c>
+      <c r="G73" t="n">
         <v>67</v>
-      </c>
-      <c r="G73" t="n">
-        <v>63</v>
       </c>
     </row>
     <row r="74">
@@ -2137,13 +2137,13 @@
         <v>80</v>
       </c>
       <c r="D74" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E74" t="n">
         <v>71</v>
       </c>
       <c r="F74" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G74" t="n">
         <v>72</v>
@@ -2163,7 +2163,7 @@
         <v>42</v>
       </c>
       <c r="E75" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F75" t="n">
         <v>20</v>
@@ -2180,19 +2180,19 @@
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D76" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E76" t="n">
         <v>95</v>
       </c>
       <c r="F76" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G76" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
@@ -2226,19 +2226,19 @@
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F78" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G78" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -2249,16 +2249,16 @@
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E79" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F79" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G79" t="n">
         <v>35</v>
@@ -2272,19 +2272,19 @@
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D80" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F80" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G80" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81">
@@ -2295,19 +2295,19 @@
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D81" t="n">
         <v>70</v>
       </c>
       <c r="E81" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F81" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G81" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82">
@@ -2318,19 +2318,19 @@
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E82" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F82" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G82" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
@@ -2341,19 +2341,19 @@
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D83" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E83" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F83" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G83" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84">
@@ -2364,19 +2364,19 @@
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E84" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F84" t="n">
         <v>76</v>
       </c>
       <c r="G84" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85">
@@ -2387,19 +2387,19 @@
       </c>
       <c r="B85" s="1" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D85" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E85" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F85" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G85" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="B86" s="1" t="inlineStr"/>
       <c r="C86" t="n">
+        <v>58</v>
+      </c>
+      <c r="D86" t="n">
+        <v>58</v>
+      </c>
+      <c r="E86" t="n">
         <v>57</v>
       </c>
-      <c r="D86" t="n">
+      <c r="F86" t="n">
+        <v>56</v>
+      </c>
+      <c r="G86" t="n">
         <v>57</v>
-      </c>
-      <c r="E86" t="n">
-        <v>55</v>
-      </c>
-      <c r="F86" t="n">
-        <v>52</v>
-      </c>
-      <c r="G86" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="87">
@@ -2433,19 +2433,19 @@
       </c>
       <c r="B87" s="1" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G87" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -2456,19 +2456,19 @@
       </c>
       <c r="B88" s="1" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D88" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E88" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F88" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G88" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89">
@@ -2482,16 +2482,16 @@
         <v>23</v>
       </c>
       <c r="D89" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E89" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F89" t="n">
         <v>51</v>
       </c>
       <c r="G89" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
@@ -2502,19 +2502,19 @@
       </c>
       <c r="B90" s="1" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D90" t="n">
         <v>54</v>
       </c>
       <c r="E90" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F90" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G90" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91">
@@ -2528,14 +2528,14 @@
         <v>87</v>
       </c>
       <c r="D91" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E91" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92">
@@ -2546,19 +2546,19 @@
       </c>
       <c r="B92" s="1" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D92" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E92" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F92" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G92" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93">
@@ -2578,10 +2578,10 @@
         <v>6</v>
       </c>
       <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="n">
         <v>12</v>
-      </c>
-      <c r="G93" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -2592,19 +2592,19 @@
       </c>
       <c r="B94" s="1" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D94" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E94" t="n">
         <v>86</v>
       </c>
       <c r="F94" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G94" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95">
@@ -2621,13 +2621,13 @@
         <v>99</v>
       </c>
       <c r="E95" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F95" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G95" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
@@ -2641,16 +2641,16 @@
         <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G96" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -2664,16 +2664,16 @@
         <v>29</v>
       </c>
       <c r="D97" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E97" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F97" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G97" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98">
@@ -2687,16 +2687,16 @@
         <v>94</v>
       </c>
       <c r="D98" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E98" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F98" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G98" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99">
@@ -2713,13 +2713,13 @@
         <v>22</v>
       </c>
       <c r="E99" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F99" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G99" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100">
@@ -2730,13 +2730,13 @@
       </c>
       <c r="B100" s="1" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="n">
         <v>13</v>
@@ -2762,10 +2762,10 @@
         <v>36</v>
       </c>
       <c r="F101" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G101" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102">
@@ -2776,19 +2776,19 @@
       </c>
       <c r="B102" s="1" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D102" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E102" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F102" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G102" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103">
@@ -2799,19 +2799,19 @@
       </c>
       <c r="B103" s="1" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E103" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F103" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G103" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104">
@@ -2822,19 +2822,19 @@
       </c>
       <c r="B104" s="1" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E104" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F104" t="n">
         <v>95</v>
       </c>
       <c r="G104" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="B105" s="1" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D105" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E105" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F105" t="n">
         <v>58</v>
       </c>
       <c r="G105" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106">
@@ -2871,16 +2871,16 @@
         <v>89</v>
       </c>
       <c r="D106" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E106" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F106" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G106" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="B107" s="1" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D107" t="n">
         <v>73</v>
@@ -2900,10 +2900,10 @@
         <v>90</v>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G107" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="B108" s="1" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D108" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E108" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F108" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G108" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B109" s="1" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D109" t="n">
         <v>99</v>
@@ -2960,19 +2960,19 @@
       </c>
       <c r="B110" s="1" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D110" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E110" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F110" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G110" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111">
@@ -2983,19 +2983,19 @@
       </c>
       <c r="B111" s="1" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E111" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F111" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G111" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -3006,16 +3006,16 @@
       </c>
       <c r="B112" s="1" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" t="n">
         <v>10</v>
       </c>
       <c r="E112" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G112" t="n">
         <v>13</v>
@@ -3035,13 +3035,13 @@
         <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F113" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G113" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
@@ -3052,19 +3052,19 @@
       </c>
       <c r="B114" s="1" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D114" t="n">
         <v>21</v>
       </c>
       <c r="E114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G114" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115">
@@ -3081,13 +3081,13 @@
         <v>36</v>
       </c>
       <c r="E115" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F115" t="n">
+        <v>33</v>
+      </c>
+      <c r="G115" t="n">
         <v>34</v>
-      </c>
-      <c r="G115" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="116">
@@ -3121,19 +3121,19 @@
       </c>
       <c r="B117" s="1" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D117" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E117" t="n">
         <v>75</v>
       </c>
       <c r="F117" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G117" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118">
@@ -3144,16 +3144,16 @@
       </c>
       <c r="B118" s="1" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F118" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G118" t="n">
         <v>27</v>
@@ -3167,16 +3167,16 @@
       </c>
       <c r="B119" s="1" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F119" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G119" t="n">
         <v>24</v>
@@ -3190,19 +3190,19 @@
       </c>
       <c r="B120" s="1" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D120" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E120" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G120" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
@@ -3213,19 +3213,19 @@
       </c>
       <c r="B121" s="1" t="inlineStr"/>
       <c r="C121" t="n">
+        <v>53</v>
+      </c>
+      <c r="D121" t="n">
         <v>48</v>
       </c>
-      <c r="D121" t="n">
-        <v>47</v>
-      </c>
       <c r="E121" t="n">
+        <v>53</v>
+      </c>
+      <c r="F121" t="n">
         <v>52</v>
       </c>
-      <c r="F121" t="n">
-        <v>57</v>
-      </c>
       <c r="G121" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122">
@@ -3242,13 +3242,13 @@
         <v>24</v>
       </c>
       <c r="E122" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F122" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G122" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123">
@@ -3259,19 +3259,19 @@
       </c>
       <c r="B123" s="1" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D123" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E123" t="n">
+        <v>29</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15</v>
+      </c>
+      <c r="G123" t="n">
         <v>33</v>
-      </c>
-      <c r="F123" t="n">
-        <v>22</v>
-      </c>
-      <c r="G123" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="124">
@@ -3282,19 +3282,19 @@
       </c>
       <c r="B124" s="1" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D124" t="n">
         <v>70</v>
       </c>
       <c r="E124" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F124" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G124" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125">
@@ -3305,19 +3305,19 @@
       </c>
       <c r="B125" s="1" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D125" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E125" t="n">
         <v>65</v>
       </c>
       <c r="F125" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G125" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
@@ -3328,19 +3328,19 @@
       </c>
       <c r="B126" s="1" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D126" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E126" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G126" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
@@ -3351,19 +3351,19 @@
       </c>
       <c r="B127" s="1" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D127" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E127" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F127" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G127" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128">
@@ -3374,19 +3374,19 @@
       </c>
       <c r="B128" s="1" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D128" t="n">
+        <v>49</v>
+      </c>
+      <c r="E128" t="n">
         <v>53</v>
       </c>
-      <c r="E128" t="n">
-        <v>57</v>
-      </c>
       <c r="F128" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G128" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129">
@@ -3397,19 +3397,19 @@
       </c>
       <c r="B129" s="1" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D129" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E129" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
       </c>
       <c r="G129" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130">
@@ -3429,10 +3429,10 @@
         <v>4</v>
       </c>
       <c r="F130" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G130" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131">
@@ -3443,19 +3443,19 @@
       </c>
       <c r="B131" s="1" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D131" t="n">
         <v>25</v>
       </c>
       <c r="E131" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F131" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G131" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B132" s="1" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
         <v>17</v>
@@ -3475,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="F132" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G132" t="n">
         <v>20</v>
@@ -3492,16 +3492,16 @@
         <v>90</v>
       </c>
       <c r="D133" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E133" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F133" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G133" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
@@ -3512,19 +3512,19 @@
       </c>
       <c r="B134" s="1" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D134" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E134" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G134" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B135" s="1" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D135" t="n">
         <v>8</v>
@@ -3544,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G135" t="n">
         <v>18</v>
@@ -3558,19 +3558,19 @@
       </c>
       <c r="B136" s="1" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D136" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E136" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F136" t="n">
+        <v>54</v>
+      </c>
+      <c r="G136" t="n">
         <v>50</v>
-      </c>
-      <c r="G136" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="137">
@@ -3604,19 +3604,19 @@
       </c>
       <c r="B138" s="1" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -3636,7 +3636,7 @@
         <v>38</v>
       </c>
       <c r="F139" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G139" t="n">
         <v>63</v>
@@ -3650,19 +3650,19 @@
       </c>
       <c r="B140" s="1" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D140" t="n">
         <v>87</v>
       </c>
       <c r="E140" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F140" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G140" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141">
@@ -3673,19 +3673,19 @@
       </c>
       <c r="B141" s="1" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D141" t="n">
         <v>20</v>
       </c>
       <c r="E141" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F141" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G141" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
@@ -3696,19 +3696,19 @@
       </c>
       <c r="B142" s="1" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D142" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E142" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F142" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G142" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143">
@@ -3719,19 +3719,19 @@
       </c>
       <c r="B143" s="1" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E143" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F143" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G143" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144">
@@ -3742,19 +3742,19 @@
       </c>
       <c r="B144" s="1" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D144" t="n">
         <v>63</v>
       </c>
       <c r="E144" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F144" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G144" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B145" s="1" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D145" t="n">
         <v>89</v>
@@ -3774,7 +3774,7 @@
         <v>45</v>
       </c>
       <c r="F145" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G145" t="n">
         <v>74</v>
@@ -3794,13 +3794,13 @@
         <v>68</v>
       </c>
       <c r="E146" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F146" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G146" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147">
@@ -3814,16 +3814,16 @@
         <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E147" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G147" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
@@ -3834,19 +3834,19 @@
       </c>
       <c r="B148" s="1" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D148" t="n">
         <v>17</v>
       </c>
       <c r="E148" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F148" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G148" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149">
@@ -3857,19 +3857,19 @@
       </c>
       <c r="B149" s="1" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D149" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E149" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F149" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G149" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150">
@@ -3880,19 +3880,19 @@
       </c>
       <c r="B150" s="1" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D150" t="n">
         <v>30</v>
       </c>
       <c r="E150" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F150" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G150" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
@@ -3906,16 +3906,16 @@
         <v>46</v>
       </c>
       <c r="D151" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E151" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F151" t="n">
         <v>32</v>
       </c>
       <c r="G151" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152">
@@ -3949,19 +3949,19 @@
       </c>
       <c r="B153" s="1" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D153" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E153" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F153" t="n">
         <v>96</v>
       </c>
       <c r="G153" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154">
@@ -3972,19 +3972,19 @@
       </c>
       <c r="B154" s="1" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D154" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E154" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G154" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
@@ -3995,19 +3995,19 @@
       </c>
       <c r="B155" s="1" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D155" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E155" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F155" t="n">
         <v>82</v>
       </c>
       <c r="G155" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156">
@@ -4018,19 +4018,19 @@
       </c>
       <c r="B156" s="1" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D156" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E156" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G156" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157">
@@ -4041,13 +4041,13 @@
       </c>
       <c r="B157" s="1" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E157" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F157" t="n">
         <v>94</v>
@@ -4064,19 +4064,19 @@
       </c>
       <c r="B158" s="1" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D158" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E158" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F158" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G158" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B159" s="1" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D159" t="n">
         <v>4</v>
@@ -4096,10 +4096,10 @@
         <v>4</v>
       </c>
       <c r="F159" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G159" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
@@ -4110,19 +4110,19 @@
       </c>
       <c r="B160" s="1" t="inlineStr"/>
       <c r="C160" t="n">
+        <v>66</v>
+      </c>
+      <c r="D160" t="n">
         <v>64</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
+        <v>58</v>
+      </c>
+      <c r="F160" t="n">
         <v>63</v>
       </c>
-      <c r="E160" t="n">
-        <v>57</v>
-      </c>
-      <c r="F160" t="n">
-        <v>54</v>
-      </c>
       <c r="G160" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161">
@@ -4133,19 +4133,19 @@
       </c>
       <c r="B161" s="1" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D161" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E161" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F161" t="n">
         <v>28</v>
       </c>
       <c r="G161" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
@@ -4156,13 +4156,13 @@
       </c>
       <c r="B162" s="1" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
         <v>9</v>
       </c>
       <c r="E162" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F162" t="n">
         <v>6</v>
@@ -4179,19 +4179,19 @@
       </c>
       <c r="B163" s="1" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D163" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E163" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F163" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="B164" s="1" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D164" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E164" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F164" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G164" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B165" s="1" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D165" t="n">
         <v>97</v>
@@ -4234,10 +4234,10 @@
         <v>95</v>
       </c>
       <c r="F165" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G165" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="166">
@@ -4251,13 +4251,13 @@
         <v>87</v>
       </c>
       <c r="D166" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E166" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F166" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G166" t="n">
         <v>79</v>
@@ -4271,19 +4271,19 @@
       </c>
       <c r="B167" s="1" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D167" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E167" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F167" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G167" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168">
@@ -4294,19 +4294,19 @@
       </c>
       <c r="B168" s="1" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D168" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E168" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F168" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G168" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169">
@@ -4317,19 +4317,19 @@
       </c>
       <c r="B169" s="1" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D169" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E169" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F169" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G169" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="170">
@@ -4340,19 +4340,19 @@
       </c>
       <c r="B170" s="1" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D170" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E170" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F170" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G170" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171">
@@ -4363,19 +4363,19 @@
       </c>
       <c r="B171" s="1" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D171" t="n">
         <v>72</v>
       </c>
       <c r="E171" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F171" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G171" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172">
@@ -4386,19 +4386,19 @@
       </c>
       <c r="B172" s="1" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D172" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E172" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G172" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="173">
@@ -4409,10 +4409,10 @@
       </c>
       <c r="B173" s="1" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D173" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E173" t="n">
         <v>46</v>
@@ -4421,7 +4421,7 @@
         <v>27</v>
       </c>
       <c r="G173" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="174">
@@ -4432,19 +4432,19 @@
       </c>
       <c r="B174" s="1" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D174" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E174" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F174" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G174" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="175">
@@ -4458,16 +4458,16 @@
         <v>39</v>
       </c>
       <c r="D175" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E175" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F175" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G175" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="B176" s="1" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D176" t="n">
         <v>41</v>
@@ -4501,19 +4501,19 @@
       </c>
       <c r="B177" s="1" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D177" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E177" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F177" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G177" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178">
@@ -4550,16 +4550,16 @@
         <v>69</v>
       </c>
       <c r="D179" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E179" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F179" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G179" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180">
@@ -4570,19 +4570,19 @@
       </c>
       <c r="B180" s="1" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D180" t="n">
         <v>56</v>
       </c>
       <c r="E180" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F180" t="n">
         <v>51</v>
       </c>
       <c r="G180" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="181">
@@ -4593,19 +4593,19 @@
       </c>
       <c r="B181" s="1" t="inlineStr"/>
       <c r="C181" t="n">
+        <v>40</v>
+      </c>
+      <c r="D181" t="n">
+        <v>39</v>
+      </c>
+      <c r="E181" t="n">
         <v>41</v>
       </c>
-      <c r="D181" t="n">
-        <v>40</v>
-      </c>
-      <c r="E181" t="n">
-        <v>46</v>
-      </c>
       <c r="F181" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G181" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182">
@@ -4625,10 +4625,10 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G182" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183">
@@ -4639,19 +4639,19 @@
       </c>
       <c r="B183" s="1" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D183" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E183" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F183" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G183" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184">
@@ -4662,13 +4662,13 @@
       </c>
       <c r="B184" s="1" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D184" t="n">
         <v>26</v>
       </c>
       <c r="E184" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F184" t="n">
         <v>48</v>
@@ -4685,19 +4685,19 @@
       </c>
       <c r="B185" s="1" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D185" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E185" t="n">
         <v>7</v>
       </c>
       <c r="F185" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="G185" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="B186" s="1" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D186" t="n">
         <v>92</v>
@@ -4717,7 +4717,7 @@
         <v>89</v>
       </c>
       <c r="F186" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G186" t="n">
         <v>88</v>
@@ -4734,16 +4734,16 @@
         <v>87</v>
       </c>
       <c r="D187" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E187" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F187" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G187" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="188">
@@ -4754,19 +4754,19 @@
       </c>
       <c r="B188" s="1" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D188" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E188" t="n">
         <v>30</v>
       </c>
       <c r="F188" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G188" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189">
@@ -4777,19 +4777,19 @@
       </c>
       <c r="B189" s="1" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D189" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E189" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F189" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G189" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190">
@@ -4809,7 +4809,7 @@
         <v>99</v>
       </c>
       <c r="F190" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G190" t="n">
         <v>99</v>
@@ -4823,19 +4823,19 @@
       </c>
       <c r="B191" s="1" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D191" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F191" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G191" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="192">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="B192" s="1" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D192" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E192" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F192" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G192" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="193">
@@ -4869,16 +4869,16 @@
       </c>
       <c r="B193" s="1" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D193" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E193" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F193" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G193" t="n">
         <v>57</v>
@@ -4892,19 +4892,19 @@
       </c>
       <c r="B194" s="1" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D194" t="n">
         <v>65</v>
       </c>
       <c r="E194" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F194" t="n">
         <v>81</v>
       </c>
       <c r="G194" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="195">
@@ -4915,19 +4915,19 @@
       </c>
       <c r="B195" s="1" t="inlineStr"/>
       <c r="C195" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D195" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E195" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F195" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G195" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="196">
@@ -4938,19 +4938,19 @@
       </c>
       <c r="B196" s="1" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D196" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E196" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F196" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G196" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197">
@@ -4961,19 +4961,19 @@
       </c>
       <c r="B197" s="1" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D197" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E197" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F197" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G197" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198">
@@ -4984,19 +4984,19 @@
       </c>
       <c r="B198" s="1" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D198" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E198" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F198" t="n">
         <v>84</v>
       </c>
       <c r="G198" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199">
@@ -5010,13 +5010,13 @@
         <v>87</v>
       </c>
       <c r="D199" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E199" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F199" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G199" t="n">
         <v>79</v>
@@ -5030,19 +5030,19 @@
       </c>
       <c r="B200" s="1" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D200" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E200" t="n">
         <v>76</v>
       </c>
       <c r="F200" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G200" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201">
@@ -5053,19 +5053,19 @@
       </c>
       <c r="B201" s="1" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D201" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E201" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F201" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G201" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="202">
@@ -5085,10 +5085,10 @@
         <v>59</v>
       </c>
       <c r="F202" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G202" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203">
@@ -5099,19 +5099,19 @@
       </c>
       <c r="B203" s="1" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D203" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E203" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F203" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G203" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="204">
@@ -5122,19 +5122,19 @@
       </c>
       <c r="B204" s="1" t="inlineStr"/>
       <c r="C204" t="n">
+        <v>56</v>
+      </c>
+      <c r="D204" t="n">
+        <v>59</v>
+      </c>
+      <c r="E204" t="n">
+        <v>69</v>
+      </c>
+      <c r="F204" t="n">
+        <v>50</v>
+      </c>
+      <c r="G204" t="n">
         <v>57</v>
-      </c>
-      <c r="D204" t="n">
-        <v>62</v>
-      </c>
-      <c r="E204" t="n">
-        <v>70</v>
-      </c>
-      <c r="F204" t="n">
-        <v>56</v>
-      </c>
-      <c r="G204" t="n">
-        <v>61</v>
       </c>
     </row>
     <row r="205">
@@ -5154,10 +5154,10 @@
         <v>48</v>
       </c>
       <c r="F205" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G205" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206">
@@ -5168,19 +5168,19 @@
       </c>
       <c r="B206" s="1" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D206" t="n">
         <v>5</v>
       </c>
       <c r="E206" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F206" t="n">
         <v>6</v>
       </c>
       <c r="G206" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207">
@@ -5191,19 +5191,19 @@
       </c>
       <c r="B207" s="1" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D207" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E207" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F207" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G207" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208">
@@ -5214,19 +5214,19 @@
       </c>
       <c r="B208" s="1" t="inlineStr"/>
       <c r="C208" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D208" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E208" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F208" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G208" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209">
@@ -5243,13 +5243,13 @@
         <v>8</v>
       </c>
       <c r="E209" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G209" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210">
@@ -5263,7 +5263,7 @@
         <v>87</v>
       </c>
       <c r="D210" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E210" t="n">
         <v>89</v>
@@ -5286,13 +5286,13 @@
         <v>87</v>
       </c>
       <c r="D211" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E211" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F211" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G211" t="n">
         <v>79</v>
@@ -5309,16 +5309,16 @@
         <v>2</v>
       </c>
       <c r="D212" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E212" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F212" t="n">
         <v>5</v>
       </c>
       <c r="G212" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213">
@@ -5338,10 +5338,10 @@
         <v>41</v>
       </c>
       <c r="F213" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G213" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="214">
@@ -5355,13 +5355,13 @@
         <v>59</v>
       </c>
       <c r="D214" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E214" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F214" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G214" t="n">
         <v>72</v>
@@ -5375,19 +5375,19 @@
       </c>
       <c r="B215" s="1" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D215" t="n">
         <v>66</v>
       </c>
       <c r="E215" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F215" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G215" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216">
@@ -5404,13 +5404,13 @@
         <v>96</v>
       </c>
       <c r="E216" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F216" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G216" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217">
@@ -5421,19 +5421,19 @@
       </c>
       <c r="B217" s="1" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D217" t="n">
         <v>55</v>
       </c>
       <c r="E217" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F217" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G217" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="218">
@@ -5444,19 +5444,19 @@
       </c>
       <c r="B218" s="1" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D218" t="n">
         <v>93</v>
       </c>
       <c r="E218" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F218" t="n">
+        <v>68</v>
+      </c>
+      <c r="G218" t="n">
         <v>71</v>
-      </c>
-      <c r="G218" t="n">
-        <v>73</v>
       </c>
     </row>
     <row r="219">
@@ -5470,13 +5470,13 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E219" t="n">
         <v>3</v>
       </c>
       <c r="F219" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G219" t="n">
         <v>8</v>
@@ -5490,19 +5490,19 @@
       </c>
       <c r="B220" s="1" t="inlineStr"/>
       <c r="C220" t="n">
+        <v>59</v>
+      </c>
+      <c r="D220" t="n">
         <v>60</v>
-      </c>
-      <c r="D220" t="n">
-        <v>61</v>
       </c>
       <c r="E220" t="n">
         <v>74</v>
       </c>
       <c r="F220" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G220" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="B221" s="1" t="inlineStr"/>
       <c r="C221" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
         <v>2</v>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -5536,19 +5536,19 @@
       </c>
       <c r="B222" s="1" t="inlineStr"/>
       <c r="C222" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D222" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E222" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F222" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G222" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223">
@@ -5559,19 +5559,19 @@
       </c>
       <c r="B223" s="1" t="inlineStr"/>
       <c r="C223" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D223" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E223" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F223" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G223" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224">
@@ -5582,19 +5582,19 @@
       </c>
       <c r="B224" s="1" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D224" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E224" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F224" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G224" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="225">
@@ -5605,19 +5605,19 @@
       </c>
       <c r="B225" s="1" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D225" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E225" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F225" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G225" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="226">
@@ -5634,13 +5634,13 @@
         <v>96</v>
       </c>
       <c r="E226" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F226" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G226" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="227">
@@ -5660,10 +5660,10 @@
         <v>55</v>
       </c>
       <c r="F227" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G227" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228">
@@ -5697,16 +5697,16 @@
       </c>
       <c r="B229" s="1" t="inlineStr"/>
       <c r="C229" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D229" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E229" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F229" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G229" t="n">
         <v>36</v>
@@ -5720,19 +5720,19 @@
       </c>
       <c r="B230" s="1" t="inlineStr"/>
       <c r="C230" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D230" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E230" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F230" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G230" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="231">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="B231" s="1" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D231" t="n">
         <v>31</v>
@@ -5752,7 +5752,7 @@
         <v>40</v>
       </c>
       <c r="F231" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G231" t="n">
         <v>32</v>
@@ -5766,19 +5766,19 @@
       </c>
       <c r="B232" s="1" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D232" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E232" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F232" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G232" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="B233" s="1" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D233" t="n">
         <v>21</v>
@@ -5801,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234">
@@ -5812,19 +5812,19 @@
       </c>
       <c r="B234" s="1" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D234" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E234" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F234" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G234" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235">
@@ -5835,19 +5835,19 @@
       </c>
       <c r="B235" s="1" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D235" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E235" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G235" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236">
@@ -5864,13 +5864,13 @@
         <v>18</v>
       </c>
       <c r="E236" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F236" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G236" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237">
@@ -5884,13 +5884,13 @@
         <v>18</v>
       </c>
       <c r="D237" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E237" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F237" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G237" t="n">
         <v>26</v>
@@ -5907,16 +5907,16 @@
         <v>84</v>
       </c>
       <c r="D238" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E238" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F238" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G238" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239">
@@ -5927,19 +5927,19 @@
       </c>
       <c r="B239" s="1" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D239" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E239" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F239" t="n">
         <v>40</v>
       </c>
       <c r="G239" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="240">
@@ -5950,16 +5950,16 @@
       </c>
       <c r="B240" s="1" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D240" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E240" t="n">
         <v>24</v>
       </c>
       <c r="F240" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G240" t="n">
         <v>59</v>
@@ -5979,13 +5979,13 @@
         <v>94</v>
       </c>
       <c r="E241" t="n">
+        <v>91</v>
+      </c>
+      <c r="F241" t="n">
         <v>90</v>
       </c>
-      <c r="F241" t="n">
-        <v>88</v>
-      </c>
       <c r="G241" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="242">
@@ -5999,13 +5999,13 @@
         <v>87</v>
       </c>
       <c r="D242" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E242" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F242" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G242" t="n">
         <v>79</v>
@@ -6019,19 +6019,19 @@
       </c>
       <c r="B243" s="1" t="inlineStr"/>
       <c r="C243" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D243" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E243" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F243" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G243" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="244">
@@ -6042,19 +6042,19 @@
       </c>
       <c r="B244" s="1" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D244" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E244" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F244" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G244" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -6065,16 +6065,16 @@
       </c>
       <c r="B245" s="1" t="inlineStr"/>
       <c r="C245" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D245" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E245" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F245" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G245" t="n">
         <v>74</v>
@@ -6088,19 +6088,19 @@
       </c>
       <c r="B246" s="1" t="inlineStr"/>
       <c r="C246" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D246" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E246" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F246" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G246" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247">
@@ -6111,19 +6111,19 @@
       </c>
       <c r="B247" s="1" t="inlineStr"/>
       <c r="C247" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D247" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E247" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F247" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G247" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248">
@@ -6137,16 +6137,16 @@
         <v>24</v>
       </c>
       <c r="D248" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E248" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F248" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G248" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249">
@@ -6157,19 +6157,19 @@
       </c>
       <c r="B249" s="1" t="inlineStr"/>
       <c r="C249" t="n">
+        <v>6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>36</v>
+      </c>
+      <c r="E249" t="n">
+        <v>63</v>
+      </c>
+      <c r="F249" t="n">
         <v>8</v>
       </c>
-      <c r="D249" t="n">
-        <v>40</v>
-      </c>
-      <c r="E249" t="n">
-        <v>70</v>
-      </c>
-      <c r="F249" t="n">
-        <v>14</v>
-      </c>
       <c r="G249" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250">
@@ -6180,19 +6180,19 @@
       </c>
       <c r="B250" s="1" t="inlineStr"/>
       <c r="C250" t="n">
+        <v>19</v>
+      </c>
+      <c r="D250" t="n">
+        <v>17</v>
+      </c>
+      <c r="E250" t="n">
         <v>16</v>
       </c>
-      <c r="D250" t="n">
-        <v>16</v>
-      </c>
-      <c r="E250" t="n">
-        <v>14</v>
-      </c>
       <c r="F250" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G250" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251">
@@ -6203,16 +6203,16 @@
       </c>
       <c r="B251" s="1" t="inlineStr"/>
       <c r="C251" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D251" t="n">
+        <v>75</v>
+      </c>
+      <c r="E251" t="n">
+        <v>75</v>
+      </c>
+      <c r="F251" t="n">
         <v>76</v>
-      </c>
-      <c r="E251" t="n">
-        <v>73</v>
-      </c>
-      <c r="F251" t="n">
-        <v>78</v>
       </c>
       <c r="G251" t="n">
         <v>80</v>
@@ -6226,19 +6226,19 @@
       </c>
       <c r="B252" s="1" t="inlineStr"/>
       <c r="C252" t="n">
+        <v>64</v>
+      </c>
+      <c r="D252" t="n">
         <v>71</v>
       </c>
-      <c r="D252" t="n">
-        <v>73</v>
-      </c>
       <c r="E252" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F252" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G252" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="253">
@@ -6249,19 +6249,19 @@
       </c>
       <c r="B253" s="1" t="inlineStr"/>
       <c r="C253" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D253" t="n">
         <v>25</v>
       </c>
       <c r="E253" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F253" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G253" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="254">
@@ -6272,19 +6272,19 @@
       </c>
       <c r="B254" s="1" t="inlineStr"/>
       <c r="C254" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D254" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E254" t="n">
         <v>22</v>
       </c>
       <c r="F254" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G254" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="B255" s="1" t="inlineStr"/>
       <c r="C255" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D255" t="n">
         <v>91</v>
@@ -6318,19 +6318,19 @@
       </c>
       <c r="B256" s="1" t="inlineStr"/>
       <c r="C256" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D256" t="n">
         <v>40</v>
       </c>
       <c r="E256" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F256" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G256" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="257">
@@ -6341,19 +6341,19 @@
       </c>
       <c r="B257" s="1" t="inlineStr"/>
       <c r="C257" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D257" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E257" t="n">
+        <v>28</v>
+      </c>
+      <c r="F257" t="n">
         <v>24</v>
       </c>
-      <c r="F257" t="n">
+      <c r="G257" t="n">
         <v>21</v>
-      </c>
-      <c r="G257" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="258">
@@ -6364,19 +6364,19 @@
       </c>
       <c r="B258" s="1" t="inlineStr"/>
       <c r="C258" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D258" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E258" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F258" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G258" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="259">
@@ -6387,19 +6387,19 @@
       </c>
       <c r="B259" s="1" t="inlineStr"/>
       <c r="C259" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D259" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E259" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F259" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G259" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260">
@@ -6410,19 +6410,19 @@
       </c>
       <c r="B260" s="1" t="inlineStr"/>
       <c r="C260" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D260" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E260" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F260" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G260" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="261">
@@ -6436,10 +6436,10 @@
         <v>73</v>
       </c>
       <c r="D261" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E261" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F261" t="n">
         <v>80</v>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B262" s="1" t="inlineStr"/>
       <c r="C262" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D262" t="n">
         <v>88</v>
@@ -6465,10 +6465,10 @@
         <v>67</v>
       </c>
       <c r="F262" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G262" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="263">
@@ -6488,10 +6488,10 @@
         <v>3</v>
       </c>
       <c r="F263" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G263" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="B264" s="1" t="inlineStr"/>
       <c r="C264" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D264" t="n">
         <v>8</v>
@@ -6511,10 +6511,10 @@
         <v>5</v>
       </c>
       <c r="F264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
@@ -6525,19 +6525,19 @@
       </c>
       <c r="B265" s="1" t="inlineStr"/>
       <c r="C265" t="n">
+        <v>79</v>
+      </c>
+      <c r="D265" t="n">
         <v>78</v>
       </c>
-      <c r="D265" t="n">
-        <v>79</v>
-      </c>
       <c r="E265" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F265" t="n">
         <v>89</v>
       </c>
       <c r="G265" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266">
@@ -6548,19 +6548,19 @@
       </c>
       <c r="B266" s="1" t="inlineStr"/>
       <c r="C266" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D266" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E266" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F266" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G266" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="267">
@@ -6571,19 +6571,19 @@
       </c>
       <c r="B267" s="1" t="inlineStr"/>
       <c r="C267" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D267" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E267" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F267" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G267" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
@@ -6594,16 +6594,16 @@
       </c>
       <c r="B268" s="1" t="inlineStr"/>
       <c r="C268" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D268" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E268" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F268" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G268" t="n">
         <v>38</v>
@@ -6617,16 +6617,16 @@
       </c>
       <c r="B269" s="1" t="inlineStr"/>
       <c r="C269" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D269" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E269" t="n">
         <v>20</v>
       </c>
       <c r="F269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G269" t="n">
         <v>15</v>
@@ -6640,19 +6640,19 @@
       </c>
       <c r="B270" s="1" t="inlineStr"/>
       <c r="C270" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D270" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E270" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F270" t="n">
+        <v>75</v>
+      </c>
+      <c r="G270" t="n">
         <v>62</v>
-      </c>
-      <c r="G270" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="271">
@@ -6663,19 +6663,19 @@
       </c>
       <c r="B271" s="1" t="inlineStr"/>
       <c r="C271" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D271" t="n">
         <v>70</v>
       </c>
       <c r="E271" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F271" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G271" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="272">
@@ -6692,7 +6692,7 @@
         <v>16</v>
       </c>
       <c r="E272" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F272" t="n">
         <v>25</v>
@@ -6718,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G273" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -6735,16 +6735,16 @@
         <v>8</v>
       </c>
       <c r="D274" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
       </c>
       <c r="F274" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G274" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="275">
@@ -6758,12 +6758,12 @@
         <v>87</v>
       </c>
       <c r="D275" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="276">
@@ -6776,10 +6776,10 @@
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F276" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G276" t="n">
         <v>45</v>
@@ -6796,16 +6796,16 @@
         <v>12</v>
       </c>
       <c r="D277" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E277" t="n">
         <v>19</v>
       </c>
       <c r="F277" t="n">
+        <v>22</v>
+      </c>
+      <c r="G277" t="n">
         <v>18</v>
-      </c>
-      <c r="G277" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B278" s="1" t="inlineStr"/>
       <c r="C278" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D278" t="n">
         <v>12</v>
@@ -6825,10 +6825,10 @@
         <v>5</v>
       </c>
       <c r="F278" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G278" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="279">
@@ -6839,19 +6839,19 @@
       </c>
       <c r="B279" s="1" t="inlineStr"/>
       <c r="C279" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D279" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E279" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F279" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G279" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280">
@@ -6865,13 +6865,13 @@
         <v>87</v>
       </c>
       <c r="D280" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E280" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F280" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G280" t="n">
         <v>79</v>
@@ -6885,19 +6885,19 @@
       </c>
       <c r="B281" s="1" t="inlineStr"/>
       <c r="C281" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D281" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E281" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F281" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G281" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="282">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="B282" s="1" t="inlineStr"/>
       <c r="C282" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D282" t="n">
         <v>9</v>
@@ -6931,19 +6931,19 @@
       </c>
       <c r="B283" s="1" t="inlineStr"/>
       <c r="C283" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D283" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E283" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F283" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G283" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="284">
@@ -6957,16 +6957,16 @@
         <v>92</v>
       </c>
       <c r="D284" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E284" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F284" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G284" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="285">
@@ -6977,19 +6977,19 @@
       </c>
       <c r="B285" s="1" t="inlineStr"/>
       <c r="C285" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D285" t="n">
         <v>35</v>
       </c>
       <c r="E285" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F285" t="n">
         <v>37</v>
       </c>
       <c r="G285" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
